--- a/noncooperative/special case study - Jul 30.xlsx
+++ b/noncooperative/special case study - Jul 30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/paper2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/Done/github/transit-data-game/noncooperative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(S,S) case" sheetId="1" r:id="rId1"/>
@@ -441,17 +441,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,18 +693,18 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -720,22 +713,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -750,9 +742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1057,13 +1049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="AD1" s="15"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C1" s="17"/>
+      <c r="AD1" s="14"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1076,7 @@
         <v>0.40104269045074592</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>0.40104269045074586</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1110,7 @@
         <v>1.4009236074019189</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1199,7 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>POWER(D18,2) + POWER(D19,2)</f>
         <v>2.8361545035981586E-8</v>
       </c>
@@ -1238,13 +1230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="AD1" s="15"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C1" s="17"/>
+      <c r="AD1" s="14"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -1274,12 +1266,12 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>D8*D16</f>
         <v>0.56714329040975708</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1393,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,6 +1409,7 @@
     <col min="25" max="28" width="15.33203125" customWidth="1"/>
     <col min="29" max="29" width="14.1640625" customWidth="1"/>
     <col min="30" max="30" width="27.1640625" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16" customWidth="1"/>
     <col min="34" max="34" width="5" customWidth="1"/>
     <col min="39" max="39" width="5.1640625" customWidth="1"/>
@@ -1424,67 +1417,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="AD1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="2:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="32" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22"/>
-      <c r="AD2" s="32" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="21"/>
+      <c r="AD2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="22"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="21"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -1493,7 +1486,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
       <c r="J3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1501,26 +1494,26 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="23"/>
+      <c r="AB3" s="22"/>
       <c r="AD3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1528,26 +1521,26 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AS3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
-      <c r="AV3" s="23"/>
+      <c r="AV3" s="22"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -1562,7 +1555,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
       <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1608,7 +1601,7 @@
         <f>$L$4</f>
         <v>1.0980453917329693</v>
       </c>
-      <c r="AB4" s="24"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="3" t="s">
         <v>25</v>
@@ -1655,7 +1648,7 @@
         <f>$AF4</f>
         <v>0.97694767485291067</v>
       </c>
-      <c r="AV4" s="24"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -1668,7 +1661,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
         <v>46</v>
@@ -1706,7 +1699,7 @@
         <f>$L$5</f>
         <v>0.97693634528956852</v>
       </c>
-      <c r="AB5" s="24"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="4" t="s">
@@ -1745,7 +1738,7 @@
         <f>$AF5</f>
         <v>1.0980544870905611</v>
       </c>
-      <c r="AV5" s="24"/>
+      <c r="AV5" s="23"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -1758,7 +1751,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
@@ -1797,7 +1790,7 @@
         <f>$L$6+$D$22</f>
         <v>-1.1458011900673171</v>
       </c>
-      <c r="AB6" s="24"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="4" t="s">
@@ -1836,7 +1829,7 @@
         <f>$AF6+$D$22</f>
         <v>-1.1457995094625262</v>
       </c>
-      <c r="AV6" s="24"/>
+      <c r="AV6" s="23"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
@@ -1845,7 +1838,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
@@ -1871,7 +1864,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AB7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AD7" s="3"/>
@@ -1898,7 +1891,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
-      <c r="AV7" s="23" t="s">
+      <c r="AV7" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1919,7 +1912,7 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>0.31999459424434162</v>
       </c>
       <c r="I8" s="2"/>
@@ -1978,7 +1971,7 @@
         <f>$L8</f>
         <v>0.39276645248354702</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="22">
         <f>$M8</f>
         <v>0.30320440424942929</v>
       </c>
@@ -2037,7 +2030,7 @@
         <f>$AF8</f>
         <v>0.39276530641114071</v>
       </c>
-      <c r="AV8" s="23">
+      <c r="AV8" s="22">
         <f>$AG8</f>
         <v>0.3032060356795403</v>
       </c>
@@ -2055,7 +2048,7 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>0.99565760034511042</v>
       </c>
       <c r="I9" s="2"/>
@@ -2106,7 +2099,7 @@
         <f t="shared" ref="AA9:AA27" si="7">$L9</f>
         <v>0.58013475843372064</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9" s="22">
         <f t="shared" ref="AB9:AB27" si="8">$M9</f>
         <v>0.11583609829925567</v>
       </c>
@@ -2157,7 +2150,7 @@
         <f t="shared" ref="AU9:AU27" si="14">$AF9</f>
         <v>0.58013016762508141</v>
       </c>
-      <c r="AV9" s="23">
+      <c r="AV9" s="22">
         <f t="shared" ref="AV9:AV27" si="15">$AG9</f>
         <v>0.11584117446559961</v>
       </c>
@@ -2171,7 +2164,7 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>-0.23171191749206482</v>
       </c>
       <c r="I10" s="2"/>
@@ -2222,7 +2215,7 @@
         <f t="shared" si="7"/>
         <v>0.23977255826061394</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB10" s="22">
         <f t="shared" si="8"/>
         <v>0.45619829847236237</v>
       </c>
@@ -2273,7 +2266,7 @@
         <f t="shared" si="14"/>
         <v>0.2397742249563978</v>
       </c>
-      <c r="AV10" s="23">
+      <c r="AV10" s="22">
         <f t="shared" si="15"/>
         <v>0.45619711713428324</v>
       </c>
@@ -2294,7 +2287,7 @@
       <c r="G11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>0.2520583455920915</v>
       </c>
       <c r="I11" s="2"/>
@@ -2345,7 +2338,7 @@
         <f t="shared" si="7"/>
         <v>0.37392703148869172</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="22">
         <f t="shared" si="8"/>
         <v>0.3220438252442846</v>
       </c>
@@ -2396,7 +2389,7 @@
         <f t="shared" si="14"/>
         <v>0.37392623177601669</v>
       </c>
-      <c r="AV11" s="23">
+      <c r="AV11" s="22">
         <f t="shared" si="15"/>
         <v>0.32204511031466432</v>
       </c>
@@ -2415,7 +2408,7 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>-0.29785025003528937</v>
       </c>
       <c r="I12" s="2"/>
@@ -2466,7 +2459,7 @@
         <f t="shared" si="7"/>
         <v>0.22143171790810093</v>
       </c>
-      <c r="AB12" s="23">
+      <c r="AB12" s="22">
         <f t="shared" si="8"/>
         <v>0.47453913882487542</v>
       </c>
@@ -2517,7 +2510,7 @@
         <f t="shared" si="14"/>
         <v>0.22143372179729104</v>
       </c>
-      <c r="AV12" s="23">
+      <c r="AV12" s="22">
         <f t="shared" si="15"/>
         <v>0.47453762029338997</v>
       </c>
@@ -2535,7 +2528,7 @@
       <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>-8.9702712621583081E-2</v>
       </c>
       <c r="I13" s="2"/>
@@ -2586,7 +2579,7 @@
         <f t="shared" si="7"/>
         <v>0.27915317242131427</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB13" s="22">
         <f t="shared" si="8"/>
         <v>0.41681768431166205</v>
       </c>
@@ -2637,7 +2630,7 @@
         <f t="shared" si="14"/>
         <v>0.27915411511082727</v>
       </c>
-      <c r="AV13" s="23">
+      <c r="AV13" s="22">
         <f t="shared" si="15"/>
         <v>0.41681722697985374</v>
       </c>
@@ -2651,7 +2644,7 @@
       <c r="G14" s="4">
         <v>7</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>-0.90045572972930432</v>
       </c>
       <c r="I14" s="2"/>
@@ -2702,7 +2695,7 @@
         <f t="shared" si="7"/>
         <v>5.432301598559261E-2</v>
       </c>
-      <c r="AB14" s="23">
+      <c r="AB14" s="22">
         <f t="shared" si="8"/>
         <v>0.64164784074738368</v>
       </c>
@@ -2753,7 +2746,7 @@
         <f t="shared" si="14"/>
         <v>5.4328092141447071E-2</v>
       </c>
-      <c r="AV14" s="23">
+      <c r="AV14" s="22">
         <f t="shared" si="15"/>
         <v>0.64164324994923394</v>
       </c>
@@ -2772,7 +2765,7 @@
       <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>-0.61087072946020915</v>
       </c>
       <c r="I15" s="2"/>
@@ -2823,7 +2816,7 @@
         <f t="shared" si="7"/>
         <v>0.13462791715537589</v>
       </c>
-      <c r="AB15" s="23">
+      <c r="AB15" s="22">
         <f t="shared" si="8"/>
         <v>0.5613429395776004</v>
       </c>
@@ -2874,7 +2867,7 @@
         <f t="shared" si="14"/>
         <v>0.13463151691851105</v>
       </c>
-      <c r="AV15" s="23">
+      <c r="AV15" s="22">
         <f t="shared" si="15"/>
         <v>0.56133982517216996</v>
       </c>
@@ -2895,7 +2888,7 @@
       <c r="G16" s="4">
         <v>9</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>0.56137222673719922</v>
       </c>
       <c r="I16" s="2"/>
@@ -2946,7 +2939,7 @@
         <f t="shared" si="7"/>
         <v>0.45970295438773029</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AB16" s="22">
         <f t="shared" si="8"/>
         <v>0.23626790234524603</v>
       </c>
@@ -2997,7 +2990,7 @@
         <f t="shared" si="14"/>
         <v>0.45970057769847961</v>
       </c>
-      <c r="AV16" s="23">
+      <c r="AV16" s="22">
         <f t="shared" si="15"/>
         <v>0.2362707643922014</v>
       </c>
@@ -3016,7 +3009,7 @@
       <c r="G17" s="4">
         <v>10</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>-1.7454762391176093</v>
       </c>
       <c r="I17" s="2"/>
@@ -3067,7 +3060,7 @@
         <f t="shared" si="7"/>
         <v>-0.18000986876261571</v>
       </c>
-      <c r="AB17" s="23">
+      <c r="AB17" s="22">
         <f t="shared" si="8"/>
         <v>0.87598072549559203</v>
       </c>
@@ -3118,7 +3111,7 @@
         <f t="shared" si="14"/>
         <v>-0.18000048443428496</v>
       </c>
-      <c r="AV17" s="23">
+      <c r="AV17" s="22">
         <f t="shared" si="15"/>
         <v>0.87597182652496597</v>
       </c>
@@ -3137,7 +3130,7 @@
       <c r="G18" s="4">
         <v>11</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>-2.3765897305980965E-3</v>
       </c>
       <c r="I18" s="2"/>
@@ -3188,7 +3181,7 @@
         <f t="shared" si="7"/>
         <v>0.30336960511563332</v>
       </c>
-      <c r="AB18" s="23">
+      <c r="AB18" s="22">
         <f t="shared" si="8"/>
         <v>0.39260125161734299</v>
       </c>
@@ -3239,7 +3232,7 @@
         <f t="shared" si="14"/>
         <v>0.30337010258991787</v>
       </c>
-      <c r="AV18" s="23">
+      <c r="AV18" s="22">
         <f t="shared" si="15"/>
         <v>0.39260123950076314</v>
       </c>
@@ -3253,7 +3246,7 @@
       <c r="G19" s="4">
         <v>12</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>0.81334763614008321</v>
       </c>
       <c r="I19" s="2"/>
@@ -3304,7 +3297,7 @@
         <f t="shared" si="7"/>
         <v>0.52957832890820322</v>
       </c>
-      <c r="AB19" s="23">
+      <c r="AB19" s="22">
         <f t="shared" si="8"/>
         <v>0.1663925278247731</v>
       </c>
@@ -3355,7 +3348,7 @@
         <f t="shared" si="14"/>
         <v>0.52957466757140681</v>
       </c>
-      <c r="AV19" s="23">
+      <c r="AV19" s="22">
         <f t="shared" si="15"/>
         <v>0.1663966745192742</v>
       </c>
@@ -3375,7 +3368,7 @@
       <c r="G20" s="4">
         <v>13</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>0.7177372623728675</v>
       </c>
       <c r="I20" s="2"/>
@@ -3426,7 +3419,7 @@
         <f t="shared" si="7"/>
         <v>0.50306458817906474</v>
       </c>
-      <c r="AB20" s="23">
+      <c r="AB20" s="22">
         <f t="shared" si="8"/>
         <v>0.19290626855391158</v>
       </c>
@@ -3477,7 +3470,7 @@
         <f t="shared" si="14"/>
         <v>0.50306141429313622</v>
       </c>
-      <c r="AV20" s="23">
+      <c r="AV20" s="22">
         <f t="shared" si="15"/>
         <v>0.19290992779754479</v>
       </c>
@@ -3495,7 +3488,7 @@
       <c r="G21" s="4">
         <v>14</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>0.22425973306843486</v>
       </c>
       <c r="I21" s="2"/>
@@ -3546,7 +3539,7 @@
         <f t="shared" si="7"/>
         <v>0.36621819011467399</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AB21" s="22">
         <f t="shared" si="8"/>
         <v>0.32975266661830233</v>
       </c>
@@ -3597,7 +3590,7 @@
         <f t="shared" si="14"/>
         <v>0.36621753212781039</v>
       </c>
-      <c r="AV21" s="23">
+      <c r="AV21" s="22">
         <f t="shared" si="15"/>
         <v>0.32975380996287063</v>
       </c>
@@ -3615,7 +3608,7 @@
       <c r="G22" s="4">
         <v>15</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>-0.38247059122983051</v>
       </c>
       <c r="I22" s="2"/>
@@ -3666,7 +3659,7 @@
         <f t="shared" si="7"/>
         <v>0.19796562632785211</v>
       </c>
-      <c r="AB22" s="23">
+      <c r="AB22" s="22">
         <f t="shared" si="8"/>
         <v>0.49800523040512423</v>
       </c>
@@ -3717,7 +3710,7 @@
         <f t="shared" si="14"/>
         <v>0.19796806163736966</v>
       </c>
-      <c r="AV22" s="23">
+      <c r="AV22" s="22">
         <f t="shared" si="15"/>
         <v>0.49800328045331133</v>
       </c>
@@ -3731,7 +3724,7 @@
       <c r="G23" s="4">
         <v>16</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>-0.46634391678403292</v>
       </c>
       <c r="I23" s="2"/>
@@ -3782,7 +3775,7 @@
         <f t="shared" si="7"/>
         <v>0.17470668987343488</v>
       </c>
-      <c r="AB23" s="23">
+      <c r="AB23" s="22">
         <f t="shared" si="8"/>
         <v>0.52126416685954147</v>
       </c>
@@ -3833,7 +3826,7 @@
         <f t="shared" si="14"/>
         <v>0.17470955279476613</v>
       </c>
-      <c r="AV23" s="23">
+      <c r="AV23" s="22">
         <f t="shared" si="15"/>
         <v>0.52126178929591482</v>
       </c>
@@ -3853,7 +3846,7 @@
       <c r="G24" s="4">
         <v>17</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>-0.71436313920477634</v>
       </c>
       <c r="I24" s="2"/>
@@ -3904,7 +3897,7 @@
         <f t="shared" si="7"/>
         <v>0.10592840672273166</v>
       </c>
-      <c r="AB24" s="23">
+      <c r="AB24" s="22">
         <f t="shared" si="8"/>
         <v>0.59004245001024469</v>
       </c>
@@ -3955,7 +3948,7 @@
         <f t="shared" si="14"/>
         <v>0.10593253412175993</v>
       </c>
-      <c r="AV24" s="23">
+      <c r="AV24" s="22">
         <f t="shared" si="15"/>
         <v>0.59003880796892105</v>
       </c>
@@ -3974,7 +3967,7 @@
       <c r="G25" s="4">
         <v>18</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <v>-1.2366075787462885</v>
       </c>
       <c r="I25" s="2"/>
@@ -4025,7 +4018,7 @@
         <f t="shared" si="7"/>
         <v>-3.8895351637952158E-2</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB25" s="22">
         <f t="shared" si="8"/>
         <v>0.73486620837092853</v>
       </c>
@@ -4076,7 +4069,7 @@
         <f t="shared" si="14"/>
         <v>-3.8888561677370204E-2</v>
       </c>
-      <c r="AV25" s="23">
+      <c r="AV25" s="22">
         <f t="shared" si="15"/>
         <v>0.73485990376805121</v>
       </c>
@@ -4095,7 +4088,7 @@
       <c r="G26" s="4">
         <v>19</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>0.4182334974823142</v>
       </c>
       <c r="I26" s="2"/>
@@ -4146,7 +4139,7 @@
         <f t="shared" si="7"/>
         <v>0.42000911148944314</v>
       </c>
-      <c r="AB26" s="23">
+      <c r="AB26" s="22">
         <f t="shared" si="8"/>
         <v>0.27596174524353317</v>
       </c>
@@ -4197,7 +4190,7 @@
         <f t="shared" si="14"/>
         <v>0.42000746456512333</v>
       </c>
-      <c r="AV26" s="23">
+      <c r="AV26" s="22">
         <f t="shared" si="15"/>
         <v>0.27596387752555768</v>
       </c>
@@ -4216,7 +4209,7 @@
       <c r="G27" s="4">
         <v>20</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <v>1.3498618773961848</v>
       </c>
       <c r="J27" s="3"/>
@@ -4266,7 +4259,7 @@
         <f t="shared" si="7"/>
         <v>0.67835925015832421</v>
       </c>
-      <c r="AB27" s="23">
+      <c r="AB27" s="22">
         <f t="shared" si="8"/>
         <v>1.7611606574652106E-2</v>
       </c>
@@ -4317,7 +4310,7 @@
         <f t="shared" si="14"/>
         <v>0.67835285350816943</v>
       </c>
-      <c r="AV27" s="23">
+      <c r="AV27" s="22">
         <f t="shared" si="15"/>
         <v>1.7618488582511582E-2</v>
       </c>
@@ -4329,7 +4322,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="22"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4">
@@ -4351,7 +4344,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="23"/>
+      <c r="AB28" s="22"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -4370,21 +4363,21 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
-      <c r="AV28" s="23"/>
+      <c r="AV28" s="22"/>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25">
         <f>K27</f>
         <v>20</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="J29" s="3" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4424,7 @@
         <f>EXP(AA4+AA6*$D$8)+EXP(AA5+AA6*$D$9)+1</f>
         <v>2.3439933960044499</v>
       </c>
-      <c r="AB29" s="23"/>
+      <c r="AB29" s="22"/>
       <c r="AD29" s="3" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4471,7 @@
         <f>EXP(AU4+AU6*$D$8)+EXP(AU5+AU6*$D$9)+1</f>
         <v>2.344009714513188</v>
       </c>
-      <c r="AV29" s="23"/>
+      <c r="AV29" s="22"/>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J30" s="3"/>
@@ -4519,7 +4512,7 @@
         <f>EXP(AA4+AA6*$D$8)/AA29</f>
         <v>0.30402819665521097</v>
       </c>
-      <c r="AB30" s="23"/>
+      <c r="AB30" s="22"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="4" t="s">
         <v>13</v>
@@ -4558,7 +4551,7 @@
         <f>EXP(AU4+AU6*$D$8)/AU29</f>
         <v>0.26935167775948327</v>
       </c>
-      <c r="AV30" s="23"/>
+      <c r="AV30" s="22"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J31" s="3"/>
@@ -4599,7 +4592,7 @@
         <f>EXP(AA5+AA6*$D$9)/AA29</f>
         <v>0.26934944096757785</v>
       </c>
-      <c r="AB31" s="23"/>
+      <c r="AB31" s="22"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="4" t="s">
         <v>14</v>
@@ -4638,7 +4631,7 @@
         <f>EXP(AU5+AU6*$D$9)/AU29</f>
         <v>0.30402892991957514</v>
       </c>
-      <c r="AV31" s="23"/>
+      <c r="AV31" s="22"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J32" s="3"/>
@@ -4679,7 +4672,7 @@
         <f>1/AA29</f>
         <v>0.42662236237721107</v>
       </c>
-      <c r="AB32" s="23"/>
+      <c r="AB32" s="22"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="4" t="s">
         <v>36</v>
@@ -4718,7 +4711,7 @@
         <f>1/AU29</f>
         <v>0.42661939232094159</v>
       </c>
-      <c r="AV32" s="23"/>
+      <c r="AV32" s="22"/>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J33" s="3"/>
@@ -4739,7 +4732,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="23"/>
+      <c r="AB33" s="22"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
@@ -4758,7 +4751,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
-      <c r="AV33" s="23"/>
+      <c r="AV33" s="22"/>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J34" s="3" t="s">
@@ -4799,7 +4792,7 @@
         <f>$D$25*LN(AA30)+LN((POWER(AA31,AA8)*POWER(AA32,AB8) + POWER(AA31,AA9)*POWER(AA32,AB9) + POWER(AA31,AA10)*POWER(AA32,AB10) + POWER(AA31,AA11)*POWER(AA32,AB11) + POWER(AA31,AA12)*POWER(AA32,AB12) + POWER(AA31,AA13)*POWER(AA32,AB13) + POWER(AA31,AA14)*POWER(AA32,AB14) + POWER(AA31,AA15)*POWER(AA32,AB15) + POWER(AA31,AA16)*POWER(AA32,AB16) + POWER(AA31,AA17)*POWER(AA32,AB17) + POWER(AA31,AA18)*POWER(AA32,AB18) + POWER(AA31,AA19)*POWER(AA32,AB19) + POWER(AA31,AA20)*POWER(AA32,AB20) + POWER(AA31,AA21)*POWER(AA32,AB21) + POWER(AA31,AA22)*POWER(AA32,AB22) + POWER(AA31,AA23)*POWER(AA32,AB23) + POWER(AA31,AA24)*POWER(AA32,AB24) + POWER(AA31,AA25)*POWER(AA32,AB25) + POWER(AA31,AA26)*POWER(AA32,AB26) + POWER(AA31,AA27)*POWER(AA32,AB27))/$D$29)</f>
         <v>-1.0834484714006172</v>
       </c>
-      <c r="AB34" s="23"/>
+      <c r="AB34" s="22"/>
       <c r="AD34" s="3" t="s">
         <v>37</v>
       </c>
@@ -4838,7 +4831,7 @@
         <f>$D$26*LN(AU31)+LN((POWER(AU30, AU8)*POWER(AU32,AV8) + POWER(AU30, AU9)*POWER(AU32,AV9) + POWER(AU30, AU10)*POWER(AU32,AV10) + POWER(AU30, AU11)*POWER(AU32,AV11) + POWER(AU30, AU12)*POWER(AU32,AV12) + POWER(AU30, AU13)*POWER(AU32,AV13) + POWER(AU30, AU14)*POWER(AU32,AV14) + POWER(AU30, AU15)*POWER(AU32,AV15) + POWER(AU30, AU16)*POWER(AU32,AV16) + POWER(AU30, AU17)*POWER(AU32,AV17) + POWER(AU30, AU18)*POWER(AU32,AV18) + POWER(AU30, AU19)*POWER(AU32,AV19) + POWER(AU30, AU20)*POWER(AU32,AV20) + POWER(AU30, AU21)*POWER(AU32,AV21) + POWER(AU30, AU22)*POWER(AU32,AV22) + POWER(AU30, AU23)*POWER(AU32,AV23) + POWER(AU30, AU24)*POWER(AU32,AV24) + POWER(AU30, AU25)*POWER(AU32,AV25) + POWER(AU30, AU26)*POWER(AU32,AV26) + POWER(AU30, AU27)*POWER(AU32,AV27))/$D$29)</f>
         <v>-1.0834488233615822</v>
       </c>
-      <c r="AV34" s="23"/>
+      <c r="AV34" s="22"/>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J35" s="3"/>
@@ -4859,7 +4852,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="23"/>
+      <c r="AB35" s="22"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
@@ -4878,7 +4871,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
-      <c r="AV35" s="23"/>
+      <c r="AV35" s="22"/>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J36" s="3" t="s">
@@ -4906,14 +4899,14 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="23"/>
+      <c r="AB36" s="22"/>
       <c r="AD36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AF36" s="10">
         <f>(AK34-AF34)/$D$22</f>
         <v>9.2292840037089253E-7</v>
       </c>
@@ -4932,7 +4925,7 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
-      <c r="AV36" s="23"/>
+      <c r="AV36" s="22"/>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J37" s="3"/>
@@ -4958,12 +4951,12 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="23"/>
+      <c r="AB37" s="22"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AF37" s="10">
         <f>(AP34-AF34)/$D$22</f>
         <v>2.964739564959018E-7</v>
       </c>
@@ -4982,7 +4975,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
-      <c r="AV37" s="23"/>
+      <c r="AV37" s="22"/>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J38" s="3"/>
@@ -5008,12 +5001,12 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="23"/>
+      <c r="AB38" s="22"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="10">
         <f>(AU34-AF34)/$D$22</f>
         <v>2.2381652087233306E-6</v>
       </c>
@@ -5032,7 +5025,7 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="23"/>
+      <c r="AV38" s="22"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J39" s="3"/>
@@ -5053,10 +5046,10 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="23"/>
+      <c r="AB39" s="22"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
+      <c r="AF39" s="10"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
@@ -5072,7 +5065,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="23"/>
+      <c r="AV39" s="22"/>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J40" s="3" t="s">
@@ -5098,12 +5091,12 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="23"/>
+      <c r="AB40" s="22"/>
       <c r="AD40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="11">
+      <c r="AF40" s="10">
         <f>1+$D$9*AF6*(1-AF31)</f>
         <v>1.0761283164573143E-6</v>
       </c>
@@ -5122,7 +5115,7 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
-      <c r="AV40" s="23"/>
+      <c r="AV40" s="22"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E41" s="2"/>
@@ -5147,10 +5140,10 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="23"/>
+      <c r="AB41" s="22"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
+      <c r="AF41" s="10"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
@@ -5166,21 +5159,21 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
-      <c r="AV41" s="23"/>
+      <c r="AV41" s="22"/>
     </row>
     <row r="42" spans="2:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30">
         <f>POWER(L36,2)+POWER(L37,2)+POWER(L38,2)+POWER(AF36,2)+POWER(AF37,2)+POWER(AF38,2)+POWER(L40,2)+POWER(AF40,2)</f>
         <v>2.500071243511114E-11</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5199,7 +5192,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="23"/>
+      <c r="AB42" s="22"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -5218,7 +5211,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
-      <c r="AV42" s="23"/>
+      <c r="AV42" s="22"/>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
@@ -5243,7 +5236,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="23"/>
+      <c r="AB43" s="22"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -5262,61 +5255,61 @@
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
       <c r="AU43" s="4"/>
-      <c r="AV43" s="23"/>
+      <c r="AV43" s="22"/>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25">
         <f>D8*D16</f>
         <v>0.38124975288057794</v>
       </c>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="27"/>
-      <c r="AD44" s="25" t="s">
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="26"/>
+      <c r="AD44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26">
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25">
         <f>D9*D17</f>
         <v>0.381249629603792</v>
       </c>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="27"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="26"/>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
@@ -5325,102 +5318,102 @@
       <c r="H45" s="2"/>
     </row>
     <row r="51" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <f>MIN($D$42)</f>
         <v>2.500071243511114E-11</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <f>COUNT($D$8:$D$9,$D$20:$D$21,$L$4:$L$6,$AF$4:$AF$6)</f>
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="28" t="b">
+      <c r="B54" s="27" t="b">
         <f t="array" ref="B54">$AF$4:$AF$5&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="28" t="b">
+      <c r="B55" s="27" t="b">
         <f t="array" ref="B55">$AF$4:$AF$5&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="b">
+      <c r="B56" s="27" t="b">
         <f>$AF$6&lt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="28" t="b">
+      <c r="B57" s="27" t="b">
         <f>$AF$6&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="b">
+      <c r="B58" s="27" t="b">
         <f t="array" ref="B58">$D$20:$D$21&lt;=2</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="b">
+      <c r="B59" s="27" t="b">
         <f t="array" ref="B59">$D$20:$D$21&gt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="28" t="b">
+      <c r="B60" s="27" t="b">
         <f t="array" ref="B60">$D$8:$D$9&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="28" t="b">
+      <c r="B61" s="27" t="b">
         <f t="array" ref="B61">$D$8:$D$9&gt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="28" t="b">
+      <c r="B62" s="27" t="b">
         <f t="array" ref="B62">$L$4:$L$5&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="28" t="b">
+      <c r="B63" s="27" t="b">
         <f t="array" ref="B63">$L$4:$L$5&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="b">
+      <c r="B64" s="27" t="b">
         <f>$L$6&lt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="28" t="b">
+      <c r="B65" s="27" t="b">
         <f>$L$6&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="28">
+      <c r="B66" s="27">
         <f>{32767,32767,0.000001,0.01,FALSE,FALSE,FALSE,1,1,1,0.0000001,FALSE}</f>
         <v>32767</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="29">
+      <c r="B67" s="28">
         <f>{0,0,1,100,0,TRUE,TRUE,0.075,0,0,TRUE,30}</f>
         <v>0</v>
       </c>
@@ -5437,7 +5430,7 @@
   <dimension ref="B1:AV67"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5460,6 +5453,7 @@
     <col min="25" max="28" width="15.33203125" customWidth="1"/>
     <col min="29" max="29" width="15.1640625" customWidth="1"/>
     <col min="30" max="30" width="27.1640625" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16" customWidth="1"/>
     <col min="34" max="34" width="5" customWidth="1"/>
     <col min="39" max="39" width="5.1640625" customWidth="1"/>
@@ -5467,66 +5461,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="15"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="2:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="32" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22"/>
-      <c r="AD2" s="32" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="21"/>
+      <c r="AD2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="22"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="21"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -5535,7 +5529,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
       <c r="J3" s="8" t="s">
         <v>62</v>
       </c>
@@ -5543,26 +5537,26 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="23"/>
+      <c r="AB3" s="22"/>
       <c r="AD3" s="8" t="s">
         <v>62</v>
       </c>
@@ -5570,26 +5564,26 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AS3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
-      <c r="AV3" s="23"/>
+      <c r="AV3" s="22"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -5604,7 +5598,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
       <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
@@ -5650,7 +5644,7 @@
         <f>$L$4</f>
         <v>1.0980453917329693</v>
       </c>
-      <c r="AB4" s="24"/>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="3" t="s">
         <v>25</v>
@@ -5697,7 +5691,7 @@
         <f>$AF4</f>
         <v>0.97694767485291067</v>
       </c>
-      <c r="AV4" s="24"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -5710,7 +5704,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
         <v>46</v>
@@ -5748,7 +5742,7 @@
         <f>$L$5</f>
         <v>0.97693634528956852</v>
       </c>
-      <c r="AB5" s="24"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="4" t="s">
@@ -5787,7 +5781,7 @@
         <f>$AF5</f>
         <v>1.0980544870905611</v>
       </c>
-      <c r="AV5" s="24"/>
+      <c r="AV5" s="23"/>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -5800,7 +5794,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
@@ -5839,7 +5833,7 @@
         <f>$L$6+$D$22</f>
         <v>-1.1458011900673171</v>
       </c>
-      <c r="AB6" s="24"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="4" t="s">
@@ -5878,7 +5872,7 @@
         <f>$AF6+$D$22</f>
         <v>-1.1457995094625262</v>
       </c>
-      <c r="AV6" s="24"/>
+      <c r="AV6" s="23"/>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
@@ -5887,7 +5881,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
@@ -5913,7 +5907,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="23" t="s">
+      <c r="AB7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AD7" s="3"/>
@@ -5940,7 +5934,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
-      <c r="AV7" s="23" t="s">
+      <c r="AV7" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5961,7 +5955,7 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>0.31999459424434162</v>
       </c>
       <c r="I8" s="2"/>
@@ -5972,11 +5966,11 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <f>$D$26+$D$21*$H8</f>
+        <f t="shared" ref="L8:L28" si="0">$D$26+$D$21*$H8</f>
         <v>0.39276645248354702</v>
       </c>
       <c r="M8" s="4">
-        <f>$D$24-$D$25-L8</f>
+        <f t="shared" ref="M8:M27" si="1">$D$24-$D$25-L8</f>
         <v>0.30320440424942929</v>
       </c>
       <c r="N8" s="4"/>
@@ -5987,11 +5981,11 @@
         <v>1</v>
       </c>
       <c r="Q8" s="4">
-        <f>$L8</f>
+        <f t="shared" ref="Q8:Q27" si="2">$L8</f>
         <v>0.39276645248354702</v>
       </c>
       <c r="R8" s="4">
-        <f>$M8</f>
+        <f t="shared" ref="R8:R27" si="3">$M8</f>
         <v>0.30320440424942929</v>
       </c>
       <c r="S8" s="4"/>
@@ -6002,11 +5996,11 @@
         <v>1</v>
       </c>
       <c r="V8" s="4">
-        <f>$L8</f>
+        <f t="shared" ref="V8:V27" si="4">$L8</f>
         <v>0.39276645248354702</v>
       </c>
       <c r="W8" s="4">
-        <f>$M8</f>
+        <f t="shared" ref="W8:W27" si="5">$M8</f>
         <v>0.30320440424942929</v>
       </c>
       <c r="X8" s="4"/>
@@ -6017,11 +6011,11 @@
         <v>1</v>
       </c>
       <c r="AA8" s="4">
-        <f>$L8</f>
+        <f t="shared" ref="AA8:AA27" si="6">$L8</f>
         <v>0.39276645248354702</v>
       </c>
-      <c r="AB8" s="23">
-        <f>$M8</f>
+      <c r="AB8" s="22">
+        <f t="shared" ref="AB8:AB27" si="7">$M8</f>
         <v>0.30320440424942929</v>
       </c>
       <c r="AD8" s="3" t="s">
@@ -6031,11 +6025,11 @@
         <v>1</v>
       </c>
       <c r="AF8" s="4">
-        <f>$D$25 + $D$20*$H8</f>
+        <f t="shared" ref="AF8:AF27" si="8">$D$25 + $D$20*$H8</f>
         <v>0.39276530641114071</v>
       </c>
       <c r="AG8" s="4">
-        <f>$D$24-$D$26-AF8</f>
+        <f t="shared" ref="AG8:AG27" si="9">$D$24-$D$26-AF8</f>
         <v>0.3032060356795403</v>
       </c>
       <c r="AH8" s="4"/>
@@ -6046,11 +6040,11 @@
         <v>1</v>
       </c>
       <c r="AK8" s="4">
-        <f>$AF8</f>
+        <f t="shared" ref="AK8:AK27" si="10">$AF8</f>
         <v>0.39276530641114071</v>
       </c>
       <c r="AL8" s="4">
-        <f>$AG8</f>
+        <f t="shared" ref="AL8:AL27" si="11">$AG8</f>
         <v>0.3032060356795403</v>
       </c>
       <c r="AM8" s="4"/>
@@ -6061,11 +6055,11 @@
         <v>1</v>
       </c>
       <c r="AP8" s="4">
-        <f>$AF8</f>
+        <f t="shared" ref="AP8:AP27" si="12">$AF8</f>
         <v>0.39276530641114071</v>
       </c>
       <c r="AQ8" s="4">
-        <f>$AG8</f>
+        <f t="shared" ref="AQ8:AQ27" si="13">$AG8</f>
         <v>0.3032060356795403</v>
       </c>
       <c r="AR8" s="4"/>
@@ -6076,11 +6070,11 @@
         <v>1</v>
       </c>
       <c r="AU8" s="4">
-        <f>$AF8</f>
+        <f t="shared" ref="AU8:AU27" si="14">$AF8</f>
         <v>0.39276530641114071</v>
       </c>
-      <c r="AV8" s="23">
-        <f>$AG8</f>
+      <c r="AV8" s="22">
+        <f t="shared" ref="AV8:AV27" si="15">$AG8</f>
         <v>0.3032060356795403</v>
       </c>
     </row>
@@ -6097,7 +6091,7 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>0.99565760034511042</v>
       </c>
       <c r="I9" s="2"/>
@@ -6106,11 +6100,11 @@
         <v>2</v>
       </c>
       <c r="L9" s="4">
-        <f>$D$26+$D$21*$H9</f>
+        <f t="shared" si="0"/>
         <v>0.58013475843372064</v>
       </c>
       <c r="M9" s="4">
-        <f>$D$24-$D$25-L9</f>
+        <f t="shared" si="1"/>
         <v>0.11583609829925567</v>
       </c>
       <c r="N9" s="4"/>
@@ -6119,11 +6113,11 @@
         <v>2</v>
       </c>
       <c r="Q9" s="4">
-        <f>$L9</f>
+        <f t="shared" si="2"/>
         <v>0.58013475843372064</v>
       </c>
       <c r="R9" s="4">
-        <f>$M9</f>
+        <f t="shared" si="3"/>
         <v>0.11583609829925567</v>
       </c>
       <c r="S9" s="4"/>
@@ -6132,11 +6126,11 @@
         <v>2</v>
       </c>
       <c r="V9" s="4">
-        <f>$L9</f>
+        <f t="shared" si="4"/>
         <v>0.58013475843372064</v>
       </c>
       <c r="W9" s="4">
-        <f>$M9</f>
+        <f t="shared" si="5"/>
         <v>0.11583609829925567</v>
       </c>
       <c r="X9" s="4"/>
@@ -6145,11 +6139,11 @@
         <v>2</v>
       </c>
       <c r="AA9" s="4">
-        <f>$L9</f>
+        <f t="shared" si="6"/>
         <v>0.58013475843372064</v>
       </c>
-      <c r="AB9" s="23">
-        <f>$M9</f>
+      <c r="AB9" s="22">
+        <f t="shared" si="7"/>
         <v>0.11583609829925567</v>
       </c>
       <c r="AD9" s="3"/>
@@ -6157,11 +6151,11 @@
         <v>2</v>
       </c>
       <c r="AF9" s="4">
-        <f>$D$25 + $D$20*$H9</f>
+        <f t="shared" si="8"/>
         <v>0.58013016762508141</v>
       </c>
       <c r="AG9" s="4">
-        <f>$D$24-$D$26-AF9</f>
+        <f t="shared" si="9"/>
         <v>0.11584117446559961</v>
       </c>
       <c r="AH9" s="4"/>
@@ -6170,11 +6164,11 @@
         <v>2</v>
       </c>
       <c r="AK9" s="4">
-        <f>$AF9</f>
+        <f t="shared" si="10"/>
         <v>0.58013016762508141</v>
       </c>
       <c r="AL9" s="4">
-        <f>$AG9</f>
+        <f t="shared" si="11"/>
         <v>0.11584117446559961</v>
       </c>
       <c r="AM9" s="4"/>
@@ -6183,11 +6177,11 @@
         <v>2</v>
       </c>
       <c r="AP9" s="4">
-        <f>$AF9</f>
+        <f t="shared" si="12"/>
         <v>0.58013016762508141</v>
       </c>
       <c r="AQ9" s="4">
-        <f>$AG9</f>
+        <f t="shared" si="13"/>
         <v>0.11584117446559961</v>
       </c>
       <c r="AR9" s="4"/>
@@ -6196,11 +6190,11 @@
         <v>2</v>
       </c>
       <c r="AU9" s="4">
-        <f>$AF9</f>
+        <f t="shared" si="14"/>
         <v>0.58013016762508141</v>
       </c>
-      <c r="AV9" s="23">
-        <f>$AG9</f>
+      <c r="AV9" s="22">
+        <f t="shared" si="15"/>
         <v>0.11584117446559961</v>
       </c>
     </row>
@@ -6213,7 +6207,7 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>-0.23171191749206482</v>
       </c>
       <c r="I10" s="2"/>
@@ -6222,11 +6216,11 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <f>$D$26+$D$21*$H10</f>
+        <f t="shared" si="0"/>
         <v>0.23977255826061394</v>
       </c>
       <c r="M10" s="4">
-        <f>$D$24-$D$25-L10</f>
+        <f t="shared" si="1"/>
         <v>0.45619829847236237</v>
       </c>
       <c r="N10" s="4"/>
@@ -6235,11 +6229,11 @@
         <v>3</v>
       </c>
       <c r="Q10" s="4">
-        <f>$L10</f>
+        <f t="shared" si="2"/>
         <v>0.23977255826061394</v>
       </c>
       <c r="R10" s="4">
-        <f>$M10</f>
+        <f t="shared" si="3"/>
         <v>0.45619829847236237</v>
       </c>
       <c r="S10" s="4"/>
@@ -6248,11 +6242,11 @@
         <v>3</v>
       </c>
       <c r="V10" s="4">
-        <f>$L10</f>
+        <f t="shared" si="4"/>
         <v>0.23977255826061394</v>
       </c>
       <c r="W10" s="4">
-        <f>$M10</f>
+        <f t="shared" si="5"/>
         <v>0.45619829847236237</v>
       </c>
       <c r="X10" s="4"/>
@@ -6261,11 +6255,11 @@
         <v>3</v>
       </c>
       <c r="AA10" s="4">
-        <f>$L10</f>
+        <f t="shared" si="6"/>
         <v>0.23977255826061394</v>
       </c>
-      <c r="AB10" s="23">
-        <f>$M10</f>
+      <c r="AB10" s="22">
+        <f t="shared" si="7"/>
         <v>0.45619829847236237</v>
       </c>
       <c r="AD10" s="3"/>
@@ -6273,11 +6267,11 @@
         <v>3</v>
       </c>
       <c r="AF10" s="4">
-        <f>$D$25 + $D$20*$H10</f>
+        <f t="shared" si="8"/>
         <v>0.2397742249563978</v>
       </c>
       <c r="AG10" s="4">
-        <f>$D$24-$D$26-AF10</f>
+        <f t="shared" si="9"/>
         <v>0.45619711713428324</v>
       </c>
       <c r="AH10" s="4"/>
@@ -6286,11 +6280,11 @@
         <v>3</v>
       </c>
       <c r="AK10" s="4">
-        <f>$AF10</f>
+        <f t="shared" si="10"/>
         <v>0.2397742249563978</v>
       </c>
       <c r="AL10" s="4">
-        <f>$AG10</f>
+        <f t="shared" si="11"/>
         <v>0.45619711713428324</v>
       </c>
       <c r="AM10" s="4"/>
@@ -6299,11 +6293,11 @@
         <v>3</v>
       </c>
       <c r="AP10" s="4">
-        <f>$AF10</f>
+        <f t="shared" si="12"/>
         <v>0.2397742249563978</v>
       </c>
       <c r="AQ10" s="4">
-        <f>$AG10</f>
+        <f t="shared" si="13"/>
         <v>0.45619711713428324</v>
       </c>
       <c r="AR10" s="4"/>
@@ -6312,11 +6306,11 @@
         <v>3</v>
       </c>
       <c r="AU10" s="4">
-        <f>$AF10</f>
+        <f t="shared" si="14"/>
         <v>0.2397742249563978</v>
       </c>
-      <c r="AV10" s="23">
-        <f>$AG10</f>
+      <c r="AV10" s="22">
+        <f t="shared" si="15"/>
         <v>0.45619711713428324</v>
       </c>
     </row>
@@ -6336,7 +6330,7 @@
       <c r="G11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>0.2520583455920915</v>
       </c>
       <c r="I11" s="2"/>
@@ -6345,11 +6339,11 @@
         <v>4</v>
       </c>
       <c r="L11" s="4">
-        <f>$D$26+$D$21*$H11</f>
+        <f t="shared" si="0"/>
         <v>0.37392703148869172</v>
       </c>
       <c r="M11" s="4">
-        <f>$D$24-$D$25-L11</f>
+        <f t="shared" si="1"/>
         <v>0.3220438252442846</v>
       </c>
       <c r="N11" s="4"/>
@@ -6358,11 +6352,11 @@
         <v>4</v>
       </c>
       <c r="Q11" s="4">
-        <f>$L11</f>
+        <f t="shared" si="2"/>
         <v>0.37392703148869172</v>
       </c>
       <c r="R11" s="4">
-        <f>$M11</f>
+        <f t="shared" si="3"/>
         <v>0.3220438252442846</v>
       </c>
       <c r="S11" s="4"/>
@@ -6371,11 +6365,11 @@
         <v>4</v>
       </c>
       <c r="V11" s="4">
-        <f>$L11</f>
+        <f t="shared" si="4"/>
         <v>0.37392703148869172</v>
       </c>
       <c r="W11" s="4">
-        <f>$M11</f>
+        <f t="shared" si="5"/>
         <v>0.3220438252442846</v>
       </c>
       <c r="X11" s="4"/>
@@ -6384,11 +6378,11 @@
         <v>4</v>
       </c>
       <c r="AA11" s="4">
-        <f>$L11</f>
+        <f t="shared" si="6"/>
         <v>0.37392703148869172</v>
       </c>
-      <c r="AB11" s="23">
-        <f>$M11</f>
+      <c r="AB11" s="22">
+        <f t="shared" si="7"/>
         <v>0.3220438252442846</v>
       </c>
       <c r="AD11" s="3"/>
@@ -6396,11 +6390,11 @@
         <v>4</v>
       </c>
       <c r="AF11" s="4">
-        <f>$D$25 + $D$20*$H11</f>
+        <f t="shared" si="8"/>
         <v>0.37392623177601669</v>
       </c>
       <c r="AG11" s="4">
-        <f>$D$24-$D$26-AF11</f>
+        <f t="shared" si="9"/>
         <v>0.32204511031466432</v>
       </c>
       <c r="AH11" s="4"/>
@@ -6409,11 +6403,11 @@
         <v>4</v>
       </c>
       <c r="AK11" s="4">
-        <f>$AF11</f>
+        <f t="shared" si="10"/>
         <v>0.37392623177601669</v>
       </c>
       <c r="AL11" s="4">
-        <f>$AG11</f>
+        <f t="shared" si="11"/>
         <v>0.32204511031466432</v>
       </c>
       <c r="AM11" s="4"/>
@@ -6422,11 +6416,11 @@
         <v>4</v>
       </c>
       <c r="AP11" s="4">
-        <f>$AF11</f>
+        <f t="shared" si="12"/>
         <v>0.37392623177601669</v>
       </c>
       <c r="AQ11" s="4">
-        <f>$AG11</f>
+        <f t="shared" si="13"/>
         <v>0.32204511031466432</v>
       </c>
       <c r="AR11" s="4"/>
@@ -6435,11 +6429,11 @@
         <v>4</v>
       </c>
       <c r="AU11" s="4">
-        <f>$AF11</f>
+        <f t="shared" si="14"/>
         <v>0.37392623177601669</v>
       </c>
-      <c r="AV11" s="23">
-        <f>$AG11</f>
+      <c r="AV11" s="22">
+        <f t="shared" si="15"/>
         <v>0.32204511031466432</v>
       </c>
     </row>
@@ -6457,7 +6451,7 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>-0.29785025003528937</v>
       </c>
       <c r="I12" s="2"/>
@@ -6466,11 +6460,11 @@
         <v>5</v>
       </c>
       <c r="L12" s="4">
-        <f>$D$26+$D$21*$H12</f>
+        <f t="shared" si="0"/>
         <v>0.22143171790810093</v>
       </c>
       <c r="M12" s="4">
-        <f>$D$24-$D$25-L12</f>
+        <f t="shared" si="1"/>
         <v>0.47453913882487542</v>
       </c>
       <c r="N12" s="4"/>
@@ -6479,11 +6473,11 @@
         <v>5</v>
       </c>
       <c r="Q12" s="4">
-        <f>$L12</f>
+        <f t="shared" si="2"/>
         <v>0.22143171790810093</v>
       </c>
       <c r="R12" s="4">
-        <f>$M12</f>
+        <f t="shared" si="3"/>
         <v>0.47453913882487542</v>
       </c>
       <c r="S12" s="4"/>
@@ -6492,11 +6486,11 @@
         <v>5</v>
       </c>
       <c r="V12" s="4">
-        <f>$L12</f>
+        <f t="shared" si="4"/>
         <v>0.22143171790810093</v>
       </c>
       <c r="W12" s="4">
-        <f>$M12</f>
+        <f t="shared" si="5"/>
         <v>0.47453913882487542</v>
       </c>
       <c r="X12" s="4"/>
@@ -6505,11 +6499,11 @@
         <v>5</v>
       </c>
       <c r="AA12" s="4">
-        <f>$L12</f>
+        <f t="shared" si="6"/>
         <v>0.22143171790810093</v>
       </c>
-      <c r="AB12" s="23">
-        <f>$M12</f>
+      <c r="AB12" s="22">
+        <f t="shared" si="7"/>
         <v>0.47453913882487542</v>
       </c>
       <c r="AD12" s="3"/>
@@ -6517,11 +6511,11 @@
         <v>5</v>
       </c>
       <c r="AF12" s="4">
-        <f>$D$25 + $D$20*$H12</f>
+        <f t="shared" si="8"/>
         <v>0.22143372179729104</v>
       </c>
       <c r="AG12" s="4">
-        <f>$D$24-$D$26-AF12</f>
+        <f t="shared" si="9"/>
         <v>0.47453762029338997</v>
       </c>
       <c r="AH12" s="4"/>
@@ -6530,11 +6524,11 @@
         <v>5</v>
       </c>
       <c r="AK12" s="4">
-        <f>$AF12</f>
+        <f t="shared" si="10"/>
         <v>0.22143372179729104</v>
       </c>
       <c r="AL12" s="4">
-        <f>$AG12</f>
+        <f t="shared" si="11"/>
         <v>0.47453762029338997</v>
       </c>
       <c r="AM12" s="4"/>
@@ -6543,11 +6537,11 @@
         <v>5</v>
       </c>
       <c r="AP12" s="4">
-        <f>$AF12</f>
+        <f t="shared" si="12"/>
         <v>0.22143372179729104</v>
       </c>
       <c r="AQ12" s="4">
-        <f>$AG12</f>
+        <f t="shared" si="13"/>
         <v>0.47453762029338997</v>
       </c>
       <c r="AR12" s="4"/>
@@ -6556,11 +6550,11 @@
         <v>5</v>
       </c>
       <c r="AU12" s="4">
-        <f>$AF12</f>
+        <f t="shared" si="14"/>
         <v>0.22143372179729104</v>
       </c>
-      <c r="AV12" s="23">
-        <f>$AG12</f>
+      <c r="AV12" s="22">
+        <f t="shared" si="15"/>
         <v>0.47453762029338997</v>
       </c>
     </row>
@@ -6577,7 +6571,7 @@
       <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>-8.9702712621583081E-2</v>
       </c>
       <c r="I13" s="2"/>
@@ -6586,11 +6580,11 @@
         <v>6</v>
       </c>
       <c r="L13" s="4">
-        <f>$D$26+$D$21*$H13</f>
+        <f t="shared" si="0"/>
         <v>0.27915317242131427</v>
       </c>
       <c r="M13" s="4">
-        <f>$D$24-$D$25-L13</f>
+        <f t="shared" si="1"/>
         <v>0.41681768431166205</v>
       </c>
       <c r="N13" s="4"/>
@@ -6599,11 +6593,11 @@
         <v>6</v>
       </c>
       <c r="Q13" s="4">
-        <f>$L13</f>
+        <f t="shared" si="2"/>
         <v>0.27915317242131427</v>
       </c>
       <c r="R13" s="4">
-        <f>$M13</f>
+        <f t="shared" si="3"/>
         <v>0.41681768431166205</v>
       </c>
       <c r="S13" s="4"/>
@@ -6612,11 +6606,11 @@
         <v>6</v>
       </c>
       <c r="V13" s="4">
-        <f>$L13</f>
+        <f t="shared" si="4"/>
         <v>0.27915317242131427</v>
       </c>
       <c r="W13" s="4">
-        <f>$M13</f>
+        <f t="shared" si="5"/>
         <v>0.41681768431166205</v>
       </c>
       <c r="X13" s="4"/>
@@ -6625,11 +6619,11 @@
         <v>6</v>
       </c>
       <c r="AA13" s="4">
-        <f>$L13</f>
+        <f t="shared" si="6"/>
         <v>0.27915317242131427</v>
       </c>
-      <c r="AB13" s="23">
-        <f>$M13</f>
+      <c r="AB13" s="22">
+        <f t="shared" si="7"/>
         <v>0.41681768431166205</v>
       </c>
       <c r="AD13" s="3"/>
@@ -6637,11 +6631,11 @@
         <v>6</v>
       </c>
       <c r="AF13" s="4">
-        <f>$D$25 + $D$20*$H13</f>
+        <f t="shared" si="8"/>
         <v>0.27915411511082727</v>
       </c>
       <c r="AG13" s="4">
-        <f>$D$24-$D$26-AF13</f>
+        <f t="shared" si="9"/>
         <v>0.41681722697985374</v>
       </c>
       <c r="AH13" s="4"/>
@@ -6650,11 +6644,11 @@
         <v>6</v>
       </c>
       <c r="AK13" s="4">
-        <f>$AF13</f>
+        <f t="shared" si="10"/>
         <v>0.27915411511082727</v>
       </c>
       <c r="AL13" s="4">
-        <f>$AG13</f>
+        <f t="shared" si="11"/>
         <v>0.41681722697985374</v>
       </c>
       <c r="AM13" s="4"/>
@@ -6663,11 +6657,11 @@
         <v>6</v>
       </c>
       <c r="AP13" s="4">
-        <f>$AF13</f>
+        <f t="shared" si="12"/>
         <v>0.27915411511082727</v>
       </c>
       <c r="AQ13" s="4">
-        <f>$AG13</f>
+        <f t="shared" si="13"/>
         <v>0.41681722697985374</v>
       </c>
       <c r="AR13" s="4"/>
@@ -6676,11 +6670,11 @@
         <v>6</v>
       </c>
       <c r="AU13" s="4">
-        <f>$AF13</f>
+        <f t="shared" si="14"/>
         <v>0.27915411511082727</v>
       </c>
-      <c r="AV13" s="23">
-        <f>$AG13</f>
+      <c r="AV13" s="22">
+        <f t="shared" si="15"/>
         <v>0.41681722697985374</v>
       </c>
     </row>
@@ -6693,7 +6687,7 @@
       <c r="G14" s="4">
         <v>7</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>-0.90045572972930432</v>
       </c>
       <c r="I14" s="2"/>
@@ -6702,11 +6696,11 @@
         <v>7</v>
       </c>
       <c r="L14" s="4">
-        <f>$D$26+$D$21*$H14</f>
+        <f t="shared" si="0"/>
         <v>5.432301598559261E-2</v>
       </c>
       <c r="M14" s="4">
-        <f>$D$24-$D$25-L14</f>
+        <f t="shared" si="1"/>
         <v>0.64164784074738368</v>
       </c>
       <c r="N14" s="4"/>
@@ -6715,11 +6709,11 @@
         <v>7</v>
       </c>
       <c r="Q14" s="4">
-        <f>$L14</f>
+        <f t="shared" si="2"/>
         <v>5.432301598559261E-2</v>
       </c>
       <c r="R14" s="4">
-        <f>$M14</f>
+        <f t="shared" si="3"/>
         <v>0.64164784074738368</v>
       </c>
       <c r="S14" s="4"/>
@@ -6728,11 +6722,11 @@
         <v>7</v>
       </c>
       <c r="V14" s="4">
-        <f>$L14</f>
+        <f t="shared" si="4"/>
         <v>5.432301598559261E-2</v>
       </c>
       <c r="W14" s="4">
-        <f>$M14</f>
+        <f t="shared" si="5"/>
         <v>0.64164784074738368</v>
       </c>
       <c r="X14" s="4"/>
@@ -6741,11 +6735,11 @@
         <v>7</v>
       </c>
       <c r="AA14" s="4">
-        <f>$L14</f>
+        <f t="shared" si="6"/>
         <v>5.432301598559261E-2</v>
       </c>
-      <c r="AB14" s="23">
-        <f>$M14</f>
+      <c r="AB14" s="22">
+        <f t="shared" si="7"/>
         <v>0.64164784074738368</v>
       </c>
       <c r="AD14" s="3"/>
@@ -6753,11 +6747,11 @@
         <v>7</v>
       </c>
       <c r="AF14" s="4">
-        <f>$D$25 + $D$20*$H14</f>
+        <f t="shared" si="8"/>
         <v>5.4328092141447071E-2</v>
       </c>
       <c r="AG14" s="4">
-        <f>$D$24-$D$26-AF14</f>
+        <f t="shared" si="9"/>
         <v>0.64164324994923394</v>
       </c>
       <c r="AH14" s="4"/>
@@ -6766,11 +6760,11 @@
         <v>7</v>
       </c>
       <c r="AK14" s="4">
-        <f>$AF14</f>
+        <f t="shared" si="10"/>
         <v>5.4328092141447071E-2</v>
       </c>
       <c r="AL14" s="4">
-        <f>$AG14</f>
+        <f t="shared" si="11"/>
         <v>0.64164324994923394</v>
       </c>
       <c r="AM14" s="4"/>
@@ -6779,11 +6773,11 @@
         <v>7</v>
       </c>
       <c r="AP14" s="4">
-        <f>$AF14</f>
+        <f t="shared" si="12"/>
         <v>5.4328092141447071E-2</v>
       </c>
       <c r="AQ14" s="4">
-        <f>$AG14</f>
+        <f t="shared" si="13"/>
         <v>0.64164324994923394</v>
       </c>
       <c r="AR14" s="4"/>
@@ -6792,11 +6786,11 @@
         <v>7</v>
       </c>
       <c r="AU14" s="4">
-        <f>$AF14</f>
+        <f t="shared" si="14"/>
         <v>5.4328092141447071E-2</v>
       </c>
-      <c r="AV14" s="23">
-        <f>$AG14</f>
+      <c r="AV14" s="22">
+        <f t="shared" si="15"/>
         <v>0.64164324994923394</v>
       </c>
     </row>
@@ -6814,7 +6808,7 @@
       <c r="G15" s="4">
         <v>8</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>-0.61087072946020915</v>
       </c>
       <c r="I15" s="2"/>
@@ -6823,11 +6817,11 @@
         <v>8</v>
       </c>
       <c r="L15" s="4">
-        <f>$D$26+$D$21*$H15</f>
+        <f t="shared" si="0"/>
         <v>0.13462791715537589</v>
       </c>
       <c r="M15" s="4">
-        <f>$D$24-$D$25-L15</f>
+        <f t="shared" si="1"/>
         <v>0.5613429395776004</v>
       </c>
       <c r="N15" s="4"/>
@@ -6836,11 +6830,11 @@
         <v>8</v>
       </c>
       <c r="Q15" s="4">
-        <f>$L15</f>
+        <f t="shared" si="2"/>
         <v>0.13462791715537589</v>
       </c>
       <c r="R15" s="4">
-        <f>$M15</f>
+        <f t="shared" si="3"/>
         <v>0.5613429395776004</v>
       </c>
       <c r="S15" s="4"/>
@@ -6849,11 +6843,11 @@
         <v>8</v>
       </c>
       <c r="V15" s="4">
-        <f>$L15</f>
+        <f t="shared" si="4"/>
         <v>0.13462791715537589</v>
       </c>
       <c r="W15" s="4">
-        <f>$M15</f>
+        <f t="shared" si="5"/>
         <v>0.5613429395776004</v>
       </c>
       <c r="X15" s="4"/>
@@ -6862,11 +6856,11 @@
         <v>8</v>
       </c>
       <c r="AA15" s="4">
-        <f>$L15</f>
+        <f t="shared" si="6"/>
         <v>0.13462791715537589</v>
       </c>
-      <c r="AB15" s="23">
-        <f>$M15</f>
+      <c r="AB15" s="22">
+        <f t="shared" si="7"/>
         <v>0.5613429395776004</v>
       </c>
       <c r="AD15" s="3"/>
@@ -6874,11 +6868,11 @@
         <v>8</v>
       </c>
       <c r="AF15" s="4">
-        <f>$D$25 + $D$20*$H15</f>
+        <f t="shared" si="8"/>
         <v>0.13463151691851105</v>
       </c>
       <c r="AG15" s="4">
-        <f>$D$24-$D$26-AF15</f>
+        <f t="shared" si="9"/>
         <v>0.56133982517216996</v>
       </c>
       <c r="AH15" s="4"/>
@@ -6887,11 +6881,11 @@
         <v>8</v>
       </c>
       <c r="AK15" s="4">
-        <f>$AF15</f>
+        <f t="shared" si="10"/>
         <v>0.13463151691851105</v>
       </c>
       <c r="AL15" s="4">
-        <f>$AG15</f>
+        <f t="shared" si="11"/>
         <v>0.56133982517216996</v>
       </c>
       <c r="AM15" s="4"/>
@@ -6900,11 +6894,11 @@
         <v>8</v>
       </c>
       <c r="AP15" s="4">
-        <f>$AF15</f>
+        <f t="shared" si="12"/>
         <v>0.13463151691851105</v>
       </c>
       <c r="AQ15" s="4">
-        <f>$AG15</f>
+        <f t="shared" si="13"/>
         <v>0.56133982517216996</v>
       </c>
       <c r="AR15" s="4"/>
@@ -6913,11 +6907,11 @@
         <v>8</v>
       </c>
       <c r="AU15" s="4">
-        <f>$AF15</f>
+        <f t="shared" si="14"/>
         <v>0.13463151691851105</v>
       </c>
-      <c r="AV15" s="23">
-        <f>$AG15</f>
+      <c r="AV15" s="22">
+        <f t="shared" si="15"/>
         <v>0.56133982517216996</v>
       </c>
     </row>
@@ -6937,7 +6931,7 @@
       <c r="G16" s="4">
         <v>9</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>0.56137222673719922</v>
       </c>
       <c r="I16" s="2"/>
@@ -6946,11 +6940,11 @@
         <v>9</v>
       </c>
       <c r="L16" s="4">
-        <f>$D$26+$D$21*$H16</f>
+        <f t="shared" si="0"/>
         <v>0.45970295438773029</v>
       </c>
       <c r="M16" s="4">
-        <f>$D$24-$D$25-L16</f>
+        <f t="shared" si="1"/>
         <v>0.23626790234524603</v>
       </c>
       <c r="N16" s="4"/>
@@ -6959,11 +6953,11 @@
         <v>9</v>
       </c>
       <c r="Q16" s="4">
-        <f>$L16</f>
+        <f t="shared" si="2"/>
         <v>0.45970295438773029</v>
       </c>
       <c r="R16" s="4">
-        <f>$M16</f>
+        <f t="shared" si="3"/>
         <v>0.23626790234524603</v>
       </c>
       <c r="S16" s="4"/>
@@ -6972,11 +6966,11 @@
         <v>9</v>
       </c>
       <c r="V16" s="4">
-        <f>$L16</f>
+        <f t="shared" si="4"/>
         <v>0.45970295438773029</v>
       </c>
       <c r="W16" s="4">
-        <f>$M16</f>
+        <f t="shared" si="5"/>
         <v>0.23626790234524603</v>
       </c>
       <c r="X16" s="4"/>
@@ -6985,11 +6979,11 @@
         <v>9</v>
       </c>
       <c r="AA16" s="4">
-        <f>$L16</f>
+        <f t="shared" si="6"/>
         <v>0.45970295438773029</v>
       </c>
-      <c r="AB16" s="23">
-        <f>$M16</f>
+      <c r="AB16" s="22">
+        <f t="shared" si="7"/>
         <v>0.23626790234524603</v>
       </c>
       <c r="AD16" s="3"/>
@@ -6997,11 +6991,11 @@
         <v>9</v>
       </c>
       <c r="AF16" s="4">
-        <f>$D$25 + $D$20*$H16</f>
+        <f t="shared" si="8"/>
         <v>0.45970057769847961</v>
       </c>
       <c r="AG16" s="4">
-        <f>$D$24-$D$26-AF16</f>
+        <f t="shared" si="9"/>
         <v>0.2362707643922014</v>
       </c>
       <c r="AH16" s="4"/>
@@ -7010,11 +7004,11 @@
         <v>9</v>
       </c>
       <c r="AK16" s="4">
-        <f>$AF16</f>
+        <f t="shared" si="10"/>
         <v>0.45970057769847961</v>
       </c>
       <c r="AL16" s="4">
-        <f>$AG16</f>
+        <f t="shared" si="11"/>
         <v>0.2362707643922014</v>
       </c>
       <c r="AM16" s="4"/>
@@ -7023,11 +7017,11 @@
         <v>9</v>
       </c>
       <c r="AP16" s="4">
-        <f>$AF16</f>
+        <f t="shared" si="12"/>
         <v>0.45970057769847961</v>
       </c>
       <c r="AQ16" s="4">
-        <f>$AG16</f>
+        <f t="shared" si="13"/>
         <v>0.2362707643922014</v>
       </c>
       <c r="AR16" s="4"/>
@@ -7036,11 +7030,11 @@
         <v>9</v>
       </c>
       <c r="AU16" s="4">
-        <f>$AF16</f>
+        <f t="shared" si="14"/>
         <v>0.45970057769847961</v>
       </c>
-      <c r="AV16" s="23">
-        <f>$AG16</f>
+      <c r="AV16" s="22">
+        <f t="shared" si="15"/>
         <v>0.2362707643922014</v>
       </c>
     </row>
@@ -7058,7 +7052,7 @@
       <c r="G17" s="4">
         <v>10</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>-1.7454762391176093</v>
       </c>
       <c r="I17" s="2"/>
@@ -7067,11 +7061,11 @@
         <v>10</v>
       </c>
       <c r="L17" s="4">
-        <f>$D$26+$D$21*$H17</f>
+        <f t="shared" si="0"/>
         <v>-0.18000986876261571</v>
       </c>
       <c r="M17" s="4">
-        <f>$D$24-$D$25-L17</f>
+        <f t="shared" si="1"/>
         <v>0.87598072549559203</v>
       </c>
       <c r="N17" s="4"/>
@@ -7080,11 +7074,11 @@
         <v>10</v>
       </c>
       <c r="Q17" s="4">
-        <f>$L17</f>
+        <f t="shared" si="2"/>
         <v>-0.18000986876261571</v>
       </c>
       <c r="R17" s="4">
-        <f>$M17</f>
+        <f t="shared" si="3"/>
         <v>0.87598072549559203</v>
       </c>
       <c r="S17" s="4"/>
@@ -7093,11 +7087,11 @@
         <v>10</v>
       </c>
       <c r="V17" s="4">
-        <f>$L17</f>
+        <f t="shared" si="4"/>
         <v>-0.18000986876261571</v>
       </c>
       <c r="W17" s="4">
-        <f>$M17</f>
+        <f t="shared" si="5"/>
         <v>0.87598072549559203</v>
       </c>
       <c r="X17" s="4"/>
@@ -7106,11 +7100,11 @@
         <v>10</v>
       </c>
       <c r="AA17" s="4">
-        <f>$L17</f>
+        <f t="shared" si="6"/>
         <v>-0.18000986876261571</v>
       </c>
-      <c r="AB17" s="23">
-        <f>$M17</f>
+      <c r="AB17" s="22">
+        <f t="shared" si="7"/>
         <v>0.87598072549559203</v>
       </c>
       <c r="AD17" s="3"/>
@@ -7118,11 +7112,11 @@
         <v>10</v>
       </c>
       <c r="AF17" s="4">
-        <f>$D$25 + $D$20*$H17</f>
+        <f t="shared" si="8"/>
         <v>-0.18000048443428496</v>
       </c>
       <c r="AG17" s="4">
-        <f>$D$24-$D$26-AF17</f>
+        <f t="shared" si="9"/>
         <v>0.87597182652496597</v>
       </c>
       <c r="AH17" s="4"/>
@@ -7131,11 +7125,11 @@
         <v>10</v>
       </c>
       <c r="AK17" s="4">
-        <f>$AF17</f>
+        <f t="shared" si="10"/>
         <v>-0.18000048443428496</v>
       </c>
       <c r="AL17" s="4">
-        <f>$AG17</f>
+        <f t="shared" si="11"/>
         <v>0.87597182652496597</v>
       </c>
       <c r="AM17" s="4"/>
@@ -7144,11 +7138,11 @@
         <v>10</v>
       </c>
       <c r="AP17" s="4">
-        <f>$AF17</f>
+        <f t="shared" si="12"/>
         <v>-0.18000048443428496</v>
       </c>
       <c r="AQ17" s="4">
-        <f>$AG17</f>
+        <f t="shared" si="13"/>
         <v>0.87597182652496597</v>
       </c>
       <c r="AR17" s="4"/>
@@ -7157,11 +7151,11 @@
         <v>10</v>
       </c>
       <c r="AU17" s="4">
-        <f>$AF17</f>
+        <f t="shared" si="14"/>
         <v>-0.18000048443428496</v>
       </c>
-      <c r="AV17" s="23">
-        <f>$AG17</f>
+      <c r="AV17" s="22">
+        <f t="shared" si="15"/>
         <v>0.87597182652496597</v>
       </c>
     </row>
@@ -7179,7 +7173,7 @@
       <c r="G18" s="4">
         <v>11</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>-2.3765897305980965E-3</v>
       </c>
       <c r="I18" s="2"/>
@@ -7188,11 +7182,11 @@
         <v>11</v>
       </c>
       <c r="L18" s="4">
-        <f>$D$26+$D$21*$H18</f>
+        <f t="shared" si="0"/>
         <v>0.30336960511563332</v>
       </c>
       <c r="M18" s="4">
-        <f>$D$24-$D$25-L18</f>
+        <f t="shared" si="1"/>
         <v>0.39260125161734299</v>
       </c>
       <c r="N18" s="4"/>
@@ -7201,11 +7195,11 @@
         <v>11</v>
       </c>
       <c r="Q18" s="4">
-        <f>$L18</f>
+        <f t="shared" si="2"/>
         <v>0.30336960511563332</v>
       </c>
       <c r="R18" s="4">
-        <f>$M18</f>
+        <f t="shared" si="3"/>
         <v>0.39260125161734299</v>
       </c>
       <c r="S18" s="4"/>
@@ -7214,11 +7208,11 @@
         <v>11</v>
       </c>
       <c r="V18" s="4">
-        <f>$L18</f>
+        <f t="shared" si="4"/>
         <v>0.30336960511563332</v>
       </c>
       <c r="W18" s="4">
-        <f>$M18</f>
+        <f t="shared" si="5"/>
         <v>0.39260125161734299</v>
       </c>
       <c r="X18" s="4"/>
@@ -7227,11 +7221,11 @@
         <v>11</v>
       </c>
       <c r="AA18" s="4">
-        <f>$L18</f>
+        <f t="shared" si="6"/>
         <v>0.30336960511563332</v>
       </c>
-      <c r="AB18" s="23">
-        <f>$M18</f>
+      <c r="AB18" s="22">
+        <f t="shared" si="7"/>
         <v>0.39260125161734299</v>
       </c>
       <c r="AD18" s="3"/>
@@ -7239,11 +7233,11 @@
         <v>11</v>
       </c>
       <c r="AF18" s="4">
-        <f>$D$25 + $D$20*$H18</f>
+        <f t="shared" si="8"/>
         <v>0.30337010258991787</v>
       </c>
       <c r="AG18" s="4">
-        <f>$D$24-$D$26-AF18</f>
+        <f t="shared" si="9"/>
         <v>0.39260123950076314</v>
       </c>
       <c r="AH18" s="4"/>
@@ -7252,11 +7246,11 @@
         <v>11</v>
       </c>
       <c r="AK18" s="4">
-        <f>$AF18</f>
+        <f t="shared" si="10"/>
         <v>0.30337010258991787</v>
       </c>
       <c r="AL18" s="4">
-        <f>$AG18</f>
+        <f t="shared" si="11"/>
         <v>0.39260123950076314</v>
       </c>
       <c r="AM18" s="4"/>
@@ -7265,11 +7259,11 @@
         <v>11</v>
       </c>
       <c r="AP18" s="4">
-        <f>$AF18</f>
+        <f t="shared" si="12"/>
         <v>0.30337010258991787</v>
       </c>
       <c r="AQ18" s="4">
-        <f>$AG18</f>
+        <f t="shared" si="13"/>
         <v>0.39260123950076314</v>
       </c>
       <c r="AR18" s="4"/>
@@ -7278,11 +7272,11 @@
         <v>11</v>
       </c>
       <c r="AU18" s="4">
-        <f>$AF18</f>
+        <f t="shared" si="14"/>
         <v>0.30337010258991787</v>
       </c>
-      <c r="AV18" s="23">
-        <f>$AG18</f>
+      <c r="AV18" s="22">
+        <f t="shared" si="15"/>
         <v>0.39260123950076314</v>
       </c>
     </row>
@@ -7295,7 +7289,7 @@
       <c r="G19" s="4">
         <v>12</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>0.81334763614008321</v>
       </c>
       <c r="I19" s="2"/>
@@ -7304,11 +7298,11 @@
         <v>12</v>
       </c>
       <c r="L19" s="4">
-        <f>$D$26+$D$21*$H19</f>
+        <f t="shared" si="0"/>
         <v>0.52957832890820322</v>
       </c>
       <c r="M19" s="4">
-        <f>$D$24-$D$25-L19</f>
+        <f t="shared" si="1"/>
         <v>0.1663925278247731</v>
       </c>
       <c r="N19" s="4"/>
@@ -7317,11 +7311,11 @@
         <v>12</v>
       </c>
       <c r="Q19" s="4">
-        <f>$L19</f>
+        <f t="shared" si="2"/>
         <v>0.52957832890820322</v>
       </c>
       <c r="R19" s="4">
-        <f>$M19</f>
+        <f t="shared" si="3"/>
         <v>0.1663925278247731</v>
       </c>
       <c r="S19" s="4"/>
@@ -7330,11 +7324,11 @@
         <v>12</v>
       </c>
       <c r="V19" s="4">
-        <f>$L19</f>
+        <f t="shared" si="4"/>
         <v>0.52957832890820322</v>
       </c>
       <c r="W19" s="4">
-        <f>$M19</f>
+        <f t="shared" si="5"/>
         <v>0.1663925278247731</v>
       </c>
       <c r="X19" s="4"/>
@@ -7343,11 +7337,11 @@
         <v>12</v>
       </c>
       <c r="AA19" s="4">
-        <f>$L19</f>
+        <f t="shared" si="6"/>
         <v>0.52957832890820322</v>
       </c>
-      <c r="AB19" s="23">
-        <f>$M19</f>
+      <c r="AB19" s="22">
+        <f t="shared" si="7"/>
         <v>0.1663925278247731</v>
       </c>
       <c r="AD19" s="3"/>
@@ -7355,11 +7349,11 @@
         <v>12</v>
       </c>
       <c r="AF19" s="4">
-        <f>$D$25 + $D$20*$H19</f>
+        <f t="shared" si="8"/>
         <v>0.52957466757140681</v>
       </c>
       <c r="AG19" s="4">
-        <f>$D$24-$D$26-AF19</f>
+        <f t="shared" si="9"/>
         <v>0.1663966745192742</v>
       </c>
       <c r="AH19" s="4"/>
@@ -7368,11 +7362,11 @@
         <v>12</v>
       </c>
       <c r="AK19" s="4">
-        <f>$AF19</f>
+        <f t="shared" si="10"/>
         <v>0.52957466757140681</v>
       </c>
       <c r="AL19" s="4">
-        <f>$AG19</f>
+        <f t="shared" si="11"/>
         <v>0.1663966745192742</v>
       </c>
       <c r="AM19" s="4"/>
@@ -7381,11 +7375,11 @@
         <v>12</v>
       </c>
       <c r="AP19" s="4">
-        <f>$AF19</f>
+        <f t="shared" si="12"/>
         <v>0.52957466757140681</v>
       </c>
       <c r="AQ19" s="4">
-        <f>$AG19</f>
+        <f t="shared" si="13"/>
         <v>0.1663966745192742</v>
       </c>
       <c r="AR19" s="4"/>
@@ -7394,11 +7388,11 @@
         <v>12</v>
       </c>
       <c r="AU19" s="4">
-        <f>$AF19</f>
+        <f t="shared" si="14"/>
         <v>0.52957466757140681</v>
       </c>
-      <c r="AV19" s="23">
-        <f>$AG19</f>
+      <c r="AV19" s="22">
+        <f t="shared" si="15"/>
         <v>0.1663966745192742</v>
       </c>
     </row>
@@ -7417,7 +7411,7 @@
       <c r="G20" s="4">
         <v>13</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>0.7177372623728675</v>
       </c>
       <c r="I20" s="2"/>
@@ -7426,11 +7420,11 @@
         <v>13</v>
       </c>
       <c r="L20" s="4">
-        <f>$D$26+$D$21*$H20</f>
+        <f t="shared" si="0"/>
         <v>0.50306458817906474</v>
       </c>
       <c r="M20" s="4">
-        <f>$D$24-$D$25-L20</f>
+        <f t="shared" si="1"/>
         <v>0.19290626855391158</v>
       </c>
       <c r="N20" s="4"/>
@@ -7439,11 +7433,11 @@
         <v>13</v>
       </c>
       <c r="Q20" s="4">
-        <f>$L20</f>
+        <f t="shared" si="2"/>
         <v>0.50306458817906474</v>
       </c>
       <c r="R20" s="4">
-        <f>$M20</f>
+        <f t="shared" si="3"/>
         <v>0.19290626855391158</v>
       </c>
       <c r="S20" s="4"/>
@@ -7452,11 +7446,11 @@
         <v>13</v>
       </c>
       <c r="V20" s="4">
-        <f>$L20</f>
+        <f t="shared" si="4"/>
         <v>0.50306458817906474</v>
       </c>
       <c r="W20" s="4">
-        <f>$M20</f>
+        <f t="shared" si="5"/>
         <v>0.19290626855391158</v>
       </c>
       <c r="X20" s="4"/>
@@ -7465,11 +7459,11 @@
         <v>13</v>
       </c>
       <c r="AA20" s="4">
-        <f>$L20</f>
+        <f t="shared" si="6"/>
         <v>0.50306458817906474</v>
       </c>
-      <c r="AB20" s="23">
-        <f>$M20</f>
+      <c r="AB20" s="22">
+        <f t="shared" si="7"/>
         <v>0.19290626855391158</v>
       </c>
       <c r="AD20" s="3"/>
@@ -7477,11 +7471,11 @@
         <v>13</v>
       </c>
       <c r="AF20" s="4">
-        <f>$D$25 + $D$20*$H20</f>
+        <f t="shared" si="8"/>
         <v>0.50306141429313622</v>
       </c>
       <c r="AG20" s="4">
-        <f>$D$24-$D$26-AF20</f>
+        <f t="shared" si="9"/>
         <v>0.19290992779754479</v>
       </c>
       <c r="AH20" s="4"/>
@@ -7490,11 +7484,11 @@
         <v>13</v>
       </c>
       <c r="AK20" s="4">
-        <f>$AF20</f>
+        <f t="shared" si="10"/>
         <v>0.50306141429313622</v>
       </c>
       <c r="AL20" s="4">
-        <f>$AG20</f>
+        <f t="shared" si="11"/>
         <v>0.19290992779754479</v>
       </c>
       <c r="AM20" s="4"/>
@@ -7503,11 +7497,11 @@
         <v>13</v>
       </c>
       <c r="AP20" s="4">
-        <f>$AF20</f>
+        <f t="shared" si="12"/>
         <v>0.50306141429313622</v>
       </c>
       <c r="AQ20" s="4">
-        <f>$AG20</f>
+        <f t="shared" si="13"/>
         <v>0.19290992779754479</v>
       </c>
       <c r="AR20" s="4"/>
@@ -7516,11 +7510,11 @@
         <v>13</v>
       </c>
       <c r="AU20" s="4">
-        <f>$AF20</f>
+        <f t="shared" si="14"/>
         <v>0.50306141429313622</v>
       </c>
-      <c r="AV20" s="23">
-        <f>$AG20</f>
+      <c r="AV20" s="22">
+        <f t="shared" si="15"/>
         <v>0.19290992779754479</v>
       </c>
     </row>
@@ -7529,7 +7523,7 @@
       <c r="C21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.27731029264347401</v>
       </c>
       <c r="E21" s="9"/>
@@ -7537,7 +7531,7 @@
       <c r="G21" s="4">
         <v>14</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>0.22425973306843486</v>
       </c>
       <c r="I21" s="2"/>
@@ -7546,11 +7540,11 @@
         <v>14</v>
       </c>
       <c r="L21" s="4">
-        <f>$D$26+$D$21*$H21</f>
+        <f t="shared" si="0"/>
         <v>0.36621819011467399</v>
       </c>
       <c r="M21" s="4">
-        <f>$D$24-$D$25-L21</f>
+        <f t="shared" si="1"/>
         <v>0.32975266661830233</v>
       </c>
       <c r="N21" s="4"/>
@@ -7559,11 +7553,11 @@
         <v>14</v>
       </c>
       <c r="Q21" s="4">
-        <f>$L21</f>
+        <f t="shared" si="2"/>
         <v>0.36621819011467399</v>
       </c>
       <c r="R21" s="4">
-        <f>$M21</f>
+        <f t="shared" si="3"/>
         <v>0.32975266661830233</v>
       </c>
       <c r="S21" s="4"/>
@@ -7572,11 +7566,11 @@
         <v>14</v>
       </c>
       <c r="V21" s="4">
-        <f>$L21</f>
+        <f t="shared" si="4"/>
         <v>0.36621819011467399</v>
       </c>
       <c r="W21" s="4">
-        <f>$M21</f>
+        <f t="shared" si="5"/>
         <v>0.32975266661830233</v>
       </c>
       <c r="X21" s="4"/>
@@ -7585,11 +7579,11 @@
         <v>14</v>
       </c>
       <c r="AA21" s="4">
-        <f>$L21</f>
+        <f t="shared" si="6"/>
         <v>0.36621819011467399</v>
       </c>
-      <c r="AB21" s="23">
-        <f>$M21</f>
+      <c r="AB21" s="22">
+        <f t="shared" si="7"/>
         <v>0.32975266661830233</v>
       </c>
       <c r="AD21" s="3"/>
@@ -7597,11 +7591,11 @@
         <v>14</v>
       </c>
       <c r="AF21" s="4">
-        <f>$D$25 + $D$20*$H21</f>
+        <f t="shared" si="8"/>
         <v>0.36621753212781039</v>
       </c>
       <c r="AG21" s="4">
-        <f>$D$24-$D$26-AF21</f>
+        <f t="shared" si="9"/>
         <v>0.32975380996287063</v>
       </c>
       <c r="AH21" s="4"/>
@@ -7610,11 +7604,11 @@
         <v>14</v>
       </c>
       <c r="AK21" s="4">
-        <f>$AF21</f>
+        <f t="shared" si="10"/>
         <v>0.36621753212781039</v>
       </c>
       <c r="AL21" s="4">
-        <f>$AG21</f>
+        <f t="shared" si="11"/>
         <v>0.32975380996287063</v>
       </c>
       <c r="AM21" s="4"/>
@@ -7623,11 +7617,11 @@
         <v>14</v>
       </c>
       <c r="AP21" s="4">
-        <f>$AF21</f>
+        <f t="shared" si="12"/>
         <v>0.36621753212781039</v>
       </c>
       <c r="AQ21" s="4">
-        <f>$AG21</f>
+        <f t="shared" si="13"/>
         <v>0.32975380996287063</v>
       </c>
       <c r="AR21" s="4"/>
@@ -7636,11 +7630,11 @@
         <v>14</v>
       </c>
       <c r="AU21" s="4">
-        <f>$AF21</f>
+        <f t="shared" si="14"/>
         <v>0.36621753212781039</v>
       </c>
-      <c r="AV21" s="23">
-        <f>$AG21</f>
+      <c r="AV21" s="22">
+        <f t="shared" si="15"/>
         <v>0.32975380996287063</v>
       </c>
     </row>
@@ -7657,7 +7651,7 @@
       <c r="G22" s="4">
         <v>15</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>-0.38247059122983051</v>
       </c>
       <c r="I22" s="2"/>
@@ -7666,11 +7660,11 @@
         <v>15</v>
       </c>
       <c r="L22" s="4">
-        <f>$D$26+$D$21*$H22</f>
+        <f t="shared" si="0"/>
         <v>0.19796562632785211</v>
       </c>
       <c r="M22" s="4">
-        <f>$D$24-$D$25-L22</f>
+        <f t="shared" si="1"/>
         <v>0.49800523040512423</v>
       </c>
       <c r="N22" s="4"/>
@@ -7679,11 +7673,11 @@
         <v>15</v>
       </c>
       <c r="Q22" s="4">
-        <f>$L22</f>
+        <f t="shared" si="2"/>
         <v>0.19796562632785211</v>
       </c>
       <c r="R22" s="4">
-        <f>$M22</f>
+        <f t="shared" si="3"/>
         <v>0.49800523040512423</v>
       </c>
       <c r="S22" s="4"/>
@@ -7692,11 +7686,11 @@
         <v>15</v>
       </c>
       <c r="V22" s="4">
-        <f>$L22</f>
+        <f t="shared" si="4"/>
         <v>0.19796562632785211</v>
       </c>
       <c r="W22" s="4">
-        <f>$M22</f>
+        <f t="shared" si="5"/>
         <v>0.49800523040512423</v>
       </c>
       <c r="X22" s="4"/>
@@ -7705,11 +7699,11 @@
         <v>15</v>
       </c>
       <c r="AA22" s="4">
-        <f>$L22</f>
+        <f t="shared" si="6"/>
         <v>0.19796562632785211</v>
       </c>
-      <c r="AB22" s="23">
-        <f>$M22</f>
+      <c r="AB22" s="22">
+        <f t="shared" si="7"/>
         <v>0.49800523040512423</v>
       </c>
       <c r="AD22" s="3"/>
@@ -7717,11 +7711,11 @@
         <v>15</v>
       </c>
       <c r="AF22" s="4">
-        <f>$D$25 + $D$20*$H22</f>
+        <f t="shared" si="8"/>
         <v>0.19796806163736966</v>
       </c>
       <c r="AG22" s="4">
-        <f>$D$24-$D$26-AF22</f>
+        <f t="shared" si="9"/>
         <v>0.49800328045331133</v>
       </c>
       <c r="AH22" s="4"/>
@@ -7730,11 +7724,11 @@
         <v>15</v>
       </c>
       <c r="AK22" s="4">
-        <f>$AF22</f>
+        <f t="shared" si="10"/>
         <v>0.19796806163736966</v>
       </c>
       <c r="AL22" s="4">
-        <f>$AG22</f>
+        <f t="shared" si="11"/>
         <v>0.49800328045331133</v>
       </c>
       <c r="AM22" s="4"/>
@@ -7743,11 +7737,11 @@
         <v>15</v>
       </c>
       <c r="AP22" s="4">
-        <f>$AF22</f>
+        <f t="shared" si="12"/>
         <v>0.19796806163736966</v>
       </c>
       <c r="AQ22" s="4">
-        <f>$AG22</f>
+        <f t="shared" si="13"/>
         <v>0.49800328045331133</v>
       </c>
       <c r="AR22" s="4"/>
@@ -7756,11 +7750,11 @@
         <v>15</v>
       </c>
       <c r="AU22" s="4">
-        <f>$AF22</f>
+        <f t="shared" si="14"/>
         <v>0.19796806163736966</v>
       </c>
-      <c r="AV22" s="23">
-        <f>$AG22</f>
+      <c r="AV22" s="22">
+        <f t="shared" si="15"/>
         <v>0.49800328045331133</v>
       </c>
     </row>
@@ -7773,7 +7767,7 @@
       <c r="G23" s="4">
         <v>16</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>-0.46634391678403292</v>
       </c>
       <c r="I23" s="2"/>
@@ -7782,11 +7776,11 @@
         <v>16</v>
       </c>
       <c r="L23" s="4">
-        <f>$D$26+$D$21*$H23</f>
+        <f t="shared" si="0"/>
         <v>0.17470668987343488</v>
       </c>
       <c r="M23" s="4">
-        <f>$D$24-$D$25-L23</f>
+        <f t="shared" si="1"/>
         <v>0.52126416685954147</v>
       </c>
       <c r="N23" s="4"/>
@@ -7795,11 +7789,11 @@
         <v>16</v>
       </c>
       <c r="Q23" s="4">
-        <f>$L23</f>
+        <f t="shared" si="2"/>
         <v>0.17470668987343488</v>
       </c>
       <c r="R23" s="4">
-        <f>$M23</f>
+        <f t="shared" si="3"/>
         <v>0.52126416685954147</v>
       </c>
       <c r="S23" s="4"/>
@@ -7808,11 +7802,11 @@
         <v>16</v>
       </c>
       <c r="V23" s="4">
-        <f>$L23</f>
+        <f t="shared" si="4"/>
         <v>0.17470668987343488</v>
       </c>
       <c r="W23" s="4">
-        <f>$M23</f>
+        <f t="shared" si="5"/>
         <v>0.52126416685954147</v>
       </c>
       <c r="X23" s="4"/>
@@ -7821,11 +7815,11 @@
         <v>16</v>
       </c>
       <c r="AA23" s="4">
-        <f>$L23</f>
+        <f t="shared" si="6"/>
         <v>0.17470668987343488</v>
       </c>
-      <c r="AB23" s="23">
-        <f>$M23</f>
+      <c r="AB23" s="22">
+        <f t="shared" si="7"/>
         <v>0.52126416685954147</v>
       </c>
       <c r="AD23" s="3"/>
@@ -7833,11 +7827,11 @@
         <v>16</v>
       </c>
       <c r="AF23" s="4">
-        <f>$D$25 + $D$20*$H23</f>
+        <f t="shared" si="8"/>
         <v>0.17470955279476613</v>
       </c>
       <c r="AG23" s="4">
-        <f>$D$24-$D$26-AF23</f>
+        <f t="shared" si="9"/>
         <v>0.52126178929591482</v>
       </c>
       <c r="AH23" s="4"/>
@@ -7846,11 +7840,11 @@
         <v>16</v>
       </c>
       <c r="AK23" s="4">
-        <f>$AF23</f>
+        <f t="shared" si="10"/>
         <v>0.17470955279476613</v>
       </c>
       <c r="AL23" s="4">
-        <f>$AG23</f>
+        <f t="shared" si="11"/>
         <v>0.52126178929591482</v>
       </c>
       <c r="AM23" s="4"/>
@@ -7859,11 +7853,11 @@
         <v>16</v>
       </c>
       <c r="AP23" s="4">
-        <f>$AF23</f>
+        <f t="shared" si="12"/>
         <v>0.17470955279476613</v>
       </c>
       <c r="AQ23" s="4">
-        <f>$AG23</f>
+        <f t="shared" si="13"/>
         <v>0.52126178929591482</v>
       </c>
       <c r="AR23" s="4"/>
@@ -7872,11 +7866,11 @@
         <v>16</v>
       </c>
       <c r="AU23" s="4">
-        <f>$AF23</f>
+        <f t="shared" si="14"/>
         <v>0.17470955279476613</v>
       </c>
-      <c r="AV23" s="23">
-        <f>$AG23</f>
+      <c r="AV23" s="22">
+        <f t="shared" si="15"/>
         <v>0.52126178929591482</v>
       </c>
     </row>
@@ -7895,7 +7889,7 @@
       <c r="G24" s="4">
         <v>17</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>-0.71436313920477634</v>
       </c>
       <c r="I24" s="2"/>
@@ -7904,11 +7898,11 @@
         <v>17</v>
       </c>
       <c r="L24" s="4">
-        <f>$D$26+$D$21*$H24</f>
+        <f t="shared" si="0"/>
         <v>0.10592840672273166</v>
       </c>
       <c r="M24" s="4">
-        <f>$D$24-$D$25-L24</f>
+        <f t="shared" si="1"/>
         <v>0.59004245001024469</v>
       </c>
       <c r="N24" s="4"/>
@@ -7917,11 +7911,11 @@
         <v>17</v>
       </c>
       <c r="Q24" s="4">
-        <f>$L24</f>
+        <f t="shared" si="2"/>
         <v>0.10592840672273166</v>
       </c>
       <c r="R24" s="4">
-        <f>$M24</f>
+        <f t="shared" si="3"/>
         <v>0.59004245001024469</v>
       </c>
       <c r="S24" s="4"/>
@@ -7930,11 +7924,11 @@
         <v>17</v>
       </c>
       <c r="V24" s="4">
-        <f>$L24</f>
+        <f t="shared" si="4"/>
         <v>0.10592840672273166</v>
       </c>
       <c r="W24" s="4">
-        <f>$M24</f>
+        <f t="shared" si="5"/>
         <v>0.59004245001024469</v>
       </c>
       <c r="X24" s="4"/>
@@ -7943,11 +7937,11 @@
         <v>17</v>
       </c>
       <c r="AA24" s="4">
-        <f>$L24</f>
+        <f t="shared" si="6"/>
         <v>0.10592840672273166</v>
       </c>
-      <c r="AB24" s="23">
-        <f>$M24</f>
+      <c r="AB24" s="22">
+        <f t="shared" si="7"/>
         <v>0.59004245001024469</v>
       </c>
       <c r="AD24" s="3"/>
@@ -7955,11 +7949,11 @@
         <v>17</v>
       </c>
       <c r="AF24" s="4">
-        <f>$D$25 + $D$20*$H24</f>
+        <f t="shared" si="8"/>
         <v>0.10593253412175993</v>
       </c>
       <c r="AG24" s="4">
-        <f>$D$24-$D$26-AF24</f>
+        <f t="shared" si="9"/>
         <v>0.59003880796892105</v>
       </c>
       <c r="AH24" s="4"/>
@@ -7968,11 +7962,11 @@
         <v>17</v>
       </c>
       <c r="AK24" s="4">
-        <f>$AF24</f>
+        <f t="shared" si="10"/>
         <v>0.10593253412175993</v>
       </c>
       <c r="AL24" s="4">
-        <f>$AG24</f>
+        <f t="shared" si="11"/>
         <v>0.59003880796892105</v>
       </c>
       <c r="AM24" s="4"/>
@@ -7981,11 +7975,11 @@
         <v>17</v>
       </c>
       <c r="AP24" s="4">
-        <f>$AF24</f>
+        <f t="shared" si="12"/>
         <v>0.10593253412175993</v>
       </c>
       <c r="AQ24" s="4">
-        <f>$AG24</f>
+        <f t="shared" si="13"/>
         <v>0.59003880796892105</v>
       </c>
       <c r="AR24" s="4"/>
@@ -7994,11 +7988,11 @@
         <v>17</v>
       </c>
       <c r="AU24" s="4">
-        <f>$AF24</f>
+        <f t="shared" si="14"/>
         <v>0.10593253412175993</v>
       </c>
-      <c r="AV24" s="23">
-        <f>$AG24</f>
+      <c r="AV24" s="22">
+        <f t="shared" si="15"/>
         <v>0.59003880796892105</v>
       </c>
     </row>
@@ -8016,7 +8010,7 @@
       <c r="G25" s="4">
         <v>18</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <v>-1.2366075787462885</v>
       </c>
       <c r="I25" s="2"/>
@@ -8025,11 +8019,11 @@
         <v>18</v>
       </c>
       <c r="L25" s="4">
-        <f>$D$26+$D$21*$H25</f>
+        <f t="shared" si="0"/>
         <v>-3.8895351637952158E-2</v>
       </c>
       <c r="M25" s="4">
-        <f>$D$24-$D$25-L25</f>
+        <f t="shared" si="1"/>
         <v>0.73486620837092853</v>
       </c>
       <c r="N25" s="4"/>
@@ -8038,11 +8032,11 @@
         <v>18</v>
       </c>
       <c r="Q25" s="4">
-        <f>$L25</f>
+        <f t="shared" si="2"/>
         <v>-3.8895351637952158E-2</v>
       </c>
       <c r="R25" s="4">
-        <f>$M25</f>
+        <f t="shared" si="3"/>
         <v>0.73486620837092853</v>
       </c>
       <c r="S25" s="4"/>
@@ -8051,11 +8045,11 @@
         <v>18</v>
       </c>
       <c r="V25" s="4">
-        <f>$L25</f>
+        <f t="shared" si="4"/>
         <v>-3.8895351637952158E-2</v>
       </c>
       <c r="W25" s="4">
-        <f>$M25</f>
+        <f t="shared" si="5"/>
         <v>0.73486620837092853</v>
       </c>
       <c r="X25" s="4"/>
@@ -8064,11 +8058,11 @@
         <v>18</v>
       </c>
       <c r="AA25" s="4">
-        <f>$L25</f>
+        <f t="shared" si="6"/>
         <v>-3.8895351637952158E-2</v>
       </c>
-      <c r="AB25" s="23">
-        <f>$M25</f>
+      <c r="AB25" s="22">
+        <f t="shared" si="7"/>
         <v>0.73486620837092853</v>
       </c>
       <c r="AD25" s="3"/>
@@ -8076,11 +8070,11 @@
         <v>18</v>
       </c>
       <c r="AF25" s="4">
-        <f>$D$25 + $D$20*$H25</f>
+        <f t="shared" si="8"/>
         <v>-3.8888561677370204E-2</v>
       </c>
       <c r="AG25" s="4">
-        <f>$D$24-$D$26-AF25</f>
+        <f t="shared" si="9"/>
         <v>0.73485990376805121</v>
       </c>
       <c r="AH25" s="4"/>
@@ -8089,11 +8083,11 @@
         <v>18</v>
       </c>
       <c r="AK25" s="4">
-        <f>$AF25</f>
+        <f t="shared" si="10"/>
         <v>-3.8888561677370204E-2</v>
       </c>
       <c r="AL25" s="4">
-        <f>$AG25</f>
+        <f t="shared" si="11"/>
         <v>0.73485990376805121</v>
       </c>
       <c r="AM25" s="4"/>
@@ -8102,11 +8096,11 @@
         <v>18</v>
       </c>
       <c r="AP25" s="4">
-        <f>$AF25</f>
+        <f t="shared" si="12"/>
         <v>-3.8888561677370204E-2</v>
       </c>
       <c r="AQ25" s="4">
-        <f>$AG25</f>
+        <f t="shared" si="13"/>
         <v>0.73485990376805121</v>
       </c>
       <c r="AR25" s="4"/>
@@ -8115,11 +8109,11 @@
         <v>18</v>
       </c>
       <c r="AU25" s="4">
-        <f>$AF25</f>
+        <f t="shared" si="14"/>
         <v>-3.8888561677370204E-2</v>
       </c>
-      <c r="AV25" s="23">
-        <f>$AG25</f>
+      <c r="AV25" s="22">
+        <f t="shared" si="15"/>
         <v>0.73485990376805121</v>
       </c>
     </row>
@@ -8137,7 +8131,7 @@
       <c r="G26" s="4">
         <v>19</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>0.4182334974823142</v>
       </c>
       <c r="I26" s="2"/>
@@ -8146,11 +8140,11 @@
         <v>19</v>
       </c>
       <c r="L26" s="4">
-        <f>$D$26+$D$21*$H26</f>
+        <f t="shared" si="0"/>
         <v>0.42000911148944314</v>
       </c>
       <c r="M26" s="4">
-        <f>$D$24-$D$25-L26</f>
+        <f t="shared" si="1"/>
         <v>0.27596174524353317</v>
       </c>
       <c r="N26" s="4"/>
@@ -8159,11 +8153,11 @@
         <v>19</v>
       </c>
       <c r="Q26" s="4">
-        <f>$L26</f>
+        <f t="shared" si="2"/>
         <v>0.42000911148944314</v>
       </c>
       <c r="R26" s="4">
-        <f>$M26</f>
+        <f t="shared" si="3"/>
         <v>0.27596174524353317</v>
       </c>
       <c r="S26" s="4"/>
@@ -8172,11 +8166,11 @@
         <v>19</v>
       </c>
       <c r="V26" s="4">
-        <f>$L26</f>
+        <f t="shared" si="4"/>
         <v>0.42000911148944314</v>
       </c>
       <c r="W26" s="4">
-        <f>$M26</f>
+        <f t="shared" si="5"/>
         <v>0.27596174524353317</v>
       </c>
       <c r="X26" s="4"/>
@@ -8185,11 +8179,11 @@
         <v>19</v>
       </c>
       <c r="AA26" s="4">
-        <f>$L26</f>
+        <f t="shared" si="6"/>
         <v>0.42000911148944314</v>
       </c>
-      <c r="AB26" s="23">
-        <f>$M26</f>
+      <c r="AB26" s="22">
+        <f t="shared" si="7"/>
         <v>0.27596174524353317</v>
       </c>
       <c r="AD26" s="3"/>
@@ -8197,11 +8191,11 @@
         <v>19</v>
       </c>
       <c r="AF26" s="4">
-        <f>$D$25 + $D$20*$H26</f>
+        <f t="shared" si="8"/>
         <v>0.42000746456512333</v>
       </c>
       <c r="AG26" s="4">
-        <f>$D$24-$D$26-AF26</f>
+        <f t="shared" si="9"/>
         <v>0.27596387752555768</v>
       </c>
       <c r="AH26" s="4"/>
@@ -8210,11 +8204,11 @@
         <v>19</v>
       </c>
       <c r="AK26" s="4">
-        <f>$AF26</f>
+        <f t="shared" si="10"/>
         <v>0.42000746456512333</v>
       </c>
       <c r="AL26" s="4">
-        <f>$AG26</f>
+        <f t="shared" si="11"/>
         <v>0.27596387752555768</v>
       </c>
       <c r="AM26" s="4"/>
@@ -8223,11 +8217,11 @@
         <v>19</v>
       </c>
       <c r="AP26" s="4">
-        <f>$AF26</f>
+        <f t="shared" si="12"/>
         <v>0.42000746456512333</v>
       </c>
       <c r="AQ26" s="4">
-        <f>$AG26</f>
+        <f t="shared" si="13"/>
         <v>0.27596387752555768</v>
       </c>
       <c r="AR26" s="4"/>
@@ -8236,11 +8230,11 @@
         <v>19</v>
       </c>
       <c r="AU26" s="4">
-        <f>$AF26</f>
+        <f t="shared" si="14"/>
         <v>0.42000746456512333</v>
       </c>
-      <c r="AV26" s="23">
-        <f>$AG26</f>
+      <c r="AV26" s="22">
+        <f t="shared" si="15"/>
         <v>0.27596387752555768</v>
       </c>
     </row>
@@ -8258,7 +8252,7 @@
       <c r="G27" s="4">
         <v>20</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <v>1.3498618773961848</v>
       </c>
       <c r="J27" s="3"/>
@@ -8266,11 +8260,11 @@
         <v>20</v>
       </c>
       <c r="L27" s="4">
-        <f>$D$26+$D$21*$H27</f>
+        <f t="shared" si="0"/>
         <v>0.67835925015832421</v>
       </c>
       <c r="M27" s="4">
-        <f>$D$24-$D$25-L27</f>
+        <f t="shared" si="1"/>
         <v>1.7611606574652106E-2</v>
       </c>
       <c r="N27" s="4"/>
@@ -8279,11 +8273,11 @@
         <v>20</v>
       </c>
       <c r="Q27" s="4">
-        <f>$L27</f>
+        <f t="shared" si="2"/>
         <v>0.67835925015832421</v>
       </c>
       <c r="R27" s="4">
-        <f>$M27</f>
+        <f t="shared" si="3"/>
         <v>1.7611606574652106E-2</v>
       </c>
       <c r="S27" s="4"/>
@@ -8292,11 +8286,11 @@
         <v>20</v>
       </c>
       <c r="V27" s="4">
-        <f>$L27</f>
+        <f t="shared" si="4"/>
         <v>0.67835925015832421</v>
       </c>
       <c r="W27" s="4">
-        <f>$M27</f>
+        <f t="shared" si="5"/>
         <v>1.7611606574652106E-2</v>
       </c>
       <c r="X27" s="4"/>
@@ -8305,11 +8299,11 @@
         <v>20</v>
       </c>
       <c r="AA27" s="4">
-        <f>$L27</f>
+        <f t="shared" si="6"/>
         <v>0.67835925015832421</v>
       </c>
-      <c r="AB27" s="23">
-        <f>$M27</f>
+      <c r="AB27" s="22">
+        <f t="shared" si="7"/>
         <v>1.7611606574652106E-2</v>
       </c>
       <c r="AD27" s="3"/>
@@ -8317,11 +8311,11 @@
         <v>20</v>
       </c>
       <c r="AF27" s="4">
-        <f>$D$25 + $D$20*$H27</f>
+        <f t="shared" si="8"/>
         <v>0.67835285350816943</v>
       </c>
       <c r="AG27" s="4">
-        <f>$D$24-$D$26-AF27</f>
+        <f t="shared" si="9"/>
         <v>1.7618488582511582E-2</v>
       </c>
       <c r="AH27" s="4"/>
@@ -8330,11 +8324,11 @@
         <v>20</v>
       </c>
       <c r="AK27" s="4">
-        <f>$AF27</f>
+        <f t="shared" si="10"/>
         <v>0.67835285350816943</v>
       </c>
       <c r="AL27" s="4">
-        <f>$AG27</f>
+        <f t="shared" si="11"/>
         <v>1.7618488582511582E-2</v>
       </c>
       <c r="AM27" s="4"/>
@@ -8343,11 +8337,11 @@
         <v>20</v>
       </c>
       <c r="AP27" s="4">
-        <f>$AF27</f>
+        <f t="shared" si="12"/>
         <v>0.67835285350816943</v>
       </c>
       <c r="AQ27" s="4">
-        <f>$AG27</f>
+        <f t="shared" si="13"/>
         <v>1.7618488582511582E-2</v>
       </c>
       <c r="AR27" s="4"/>
@@ -8356,11 +8350,11 @@
         <v>20</v>
       </c>
       <c r="AU27" s="4">
-        <f>$AF27</f>
+        <f t="shared" si="14"/>
         <v>0.67835285350816943</v>
       </c>
-      <c r="AV27" s="23">
-        <f>$AG27</f>
+      <c r="AV27" s="22">
+        <f t="shared" si="15"/>
         <v>1.7618488582511582E-2</v>
       </c>
     </row>
@@ -8371,11 +8365,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="23"/>
+      <c r="H28" s="22"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4">
-        <f>$D$26+$D$21*$H28</f>
+        <f t="shared" si="0"/>
         <v>0.30402865790931893</v>
       </c>
       <c r="M28" s="4"/>
@@ -8393,7 +8387,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="23"/>
+      <c r="AB28" s="22"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -8412,21 +8406,21 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
-      <c r="AV28" s="23"/>
+      <c r="AV28" s="22"/>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25">
         <f>K27</f>
         <v>20</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="J29" s="3" t="s">
         <v>12</v>
       </c>
@@ -8473,7 +8467,7 @@
         <f>EXP(AA4+AA6*$D$8)+EXP(AA5+AA6*$D$9)+1</f>
         <v>2.3439933960044499</v>
       </c>
-      <c r="AB29" s="23"/>
+      <c r="AB29" s="22"/>
       <c r="AD29" s="3" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8514,7 @@
         <f>EXP(AU4+AU6*$D$8)+EXP(AU5+AU6*$D$9)+1</f>
         <v>2.344009714513188</v>
       </c>
-      <c r="AV29" s="23"/>
+      <c r="AV29" s="22"/>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J30" s="3"/>
@@ -8561,7 +8555,7 @@
         <f>EXP(AA4+AA6*$D$8)/AA29</f>
         <v>0.30402819665521097</v>
       </c>
-      <c r="AB30" s="23"/>
+      <c r="AB30" s="22"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="4" t="s">
         <v>13</v>
@@ -8600,7 +8594,7 @@
         <f>EXP(AU4+AU6*$D$8)/AU29</f>
         <v>0.26935167775948327</v>
       </c>
-      <c r="AV30" s="23"/>
+      <c r="AV30" s="22"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J31" s="3"/>
@@ -8641,7 +8635,7 @@
         <f>EXP(AA5+AA6*$D$9)/AA29</f>
         <v>0.26934944096757785</v>
       </c>
-      <c r="AB31" s="23"/>
+      <c r="AB31" s="22"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="4" t="s">
         <v>14</v>
@@ -8680,7 +8674,7 @@
         <f>EXP(AU5+AU6*$D$9)/AU29</f>
         <v>0.30402892991957514</v>
       </c>
-      <c r="AV31" s="23"/>
+      <c r="AV31" s="22"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J32" s="3"/>
@@ -8721,7 +8715,7 @@
         <f>1/AA29</f>
         <v>0.42662236237721107</v>
       </c>
-      <c r="AB32" s="23"/>
+      <c r="AB32" s="22"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="4" t="s">
         <v>36</v>
@@ -8760,7 +8754,7 @@
         <f>1/AU29</f>
         <v>0.42661939232094159</v>
       </c>
-      <c r="AV32" s="23"/>
+      <c r="AV32" s="22"/>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J33" s="3"/>
@@ -8781,7 +8775,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="23"/>
+      <c r="AB33" s="22"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
@@ -8800,7 +8794,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
       <c r="AU33" s="4"/>
-      <c r="AV33" s="23"/>
+      <c r="AV33" s="22"/>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J34" s="3" t="s">
@@ -8841,7 +8835,7 @@
         <f>$D$25*LN(AA30)+LN((POWER(AA31,AA8)*POWER(AA32,AB8) + POWER(AA31,AA9)*POWER(AA32,AB9) + POWER(AA31,AA10)*POWER(AA32,AB10) + POWER(AA31,AA11)*POWER(AA32,AB11) + POWER(AA31,AA12)*POWER(AA32,AB12) + POWER(AA31,AA13)*POWER(AA32,AB13) + POWER(AA31,AA14)*POWER(AA32,AB14) + POWER(AA31,AA15)*POWER(AA32,AB15) + POWER(AA31,AA16)*POWER(AA32,AB16) + POWER(AA31,AA17)*POWER(AA32,AB17) + POWER(AA31,AA18)*POWER(AA32,AB18) + POWER(AA31,AA19)*POWER(AA32,AB19) + POWER(AA31,AA20)*POWER(AA32,AB20) + POWER(AA31,AA21)*POWER(AA32,AB21) + POWER(AA31,AA22)*POWER(AA32,AB22) + POWER(AA31,AA23)*POWER(AA32,AB23) + POWER(AA31,AA24)*POWER(AA32,AB24) + POWER(AA31,AA25)*POWER(AA32,AB25) + POWER(AA31,AA26)*POWER(AA32,AB26) + POWER(AA31,AA27)*POWER(AA32,AB27))/$D$29)</f>
         <v>-1.0834484714006172</v>
       </c>
-      <c r="AB34" s="23"/>
+      <c r="AB34" s="22"/>
       <c r="AD34" s="3" t="s">
         <v>37</v>
       </c>
@@ -8880,7 +8874,7 @@
         <f>$D$26*LN(AU31)+LN((POWER(AU30, AU8)*POWER(AU32,AV8) + POWER(AU30, AU9)*POWER(AU32,AV9) + POWER(AU30, AU10)*POWER(AU32,AV10) + POWER(AU30, AU11)*POWER(AU32,AV11) + POWER(AU30, AU12)*POWER(AU32,AV12) + POWER(AU30, AU13)*POWER(AU32,AV13) + POWER(AU30, AU14)*POWER(AU32,AV14) + POWER(AU30, AU15)*POWER(AU32,AV15) + POWER(AU30, AU16)*POWER(AU32,AV16) + POWER(AU30, AU17)*POWER(AU32,AV17) + POWER(AU30, AU18)*POWER(AU32,AV18) + POWER(AU30, AU19)*POWER(AU32,AV19) + POWER(AU30, AU20)*POWER(AU32,AV20) + POWER(AU30, AU21)*POWER(AU32,AV21) + POWER(AU30, AU22)*POWER(AU32,AV22) + POWER(AU30, AU23)*POWER(AU32,AV23) + POWER(AU30, AU24)*POWER(AU32,AV24) + POWER(AU30, AU25)*POWER(AU32,AV25) + POWER(AU30, AU26)*POWER(AU32,AV26) + POWER(AU30, AU27)*POWER(AU32,AV27))/$D$29)</f>
         <v>-1.0834488233615822</v>
       </c>
-      <c r="AV34" s="23"/>
+      <c r="AV34" s="22"/>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J35" s="3"/>
@@ -8901,7 +8895,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="23"/>
+      <c r="AB35" s="22"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
@@ -8920,7 +8914,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
       <c r="AU35" s="4"/>
-      <c r="AV35" s="23"/>
+      <c r="AV35" s="22"/>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J36" s="3" t="s">
@@ -8948,14 +8942,14 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="23"/>
+      <c r="AB36" s="22"/>
       <c r="AD36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AF36" s="10">
         <f>(AK34-AF34)/$D$22</f>
         <v>9.2292840037089253E-7</v>
       </c>
@@ -8974,7 +8968,7 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
-      <c r="AV36" s="23"/>
+      <c r="AV36" s="22"/>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J37" s="3"/>
@@ -9000,12 +8994,12 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="23"/>
+      <c r="AB37" s="22"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AF37" s="10">
         <f>(AP34-AF34)/$D$22</f>
         <v>2.964739564959018E-7</v>
       </c>
@@ -9024,7 +9018,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
       <c r="AU37" s="4"/>
-      <c r="AV37" s="23"/>
+      <c r="AV37" s="22"/>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J38" s="3"/>
@@ -9050,12 +9044,12 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="23"/>
+      <c r="AB38" s="22"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38" s="10">
         <f>(AU34-AF34)/$D$22</f>
         <v>2.2381652087233306E-6</v>
       </c>
@@ -9074,7 +9068,7 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
-      <c r="AV38" s="23"/>
+      <c r="AV38" s="22"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J39" s="3"/>
@@ -9095,10 +9089,10 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="23"/>
+      <c r="AB39" s="22"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
+      <c r="AF39" s="10"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
@@ -9114,7 +9108,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="23"/>
+      <c r="AV39" s="22"/>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="J40" s="3" t="s">
@@ -9140,12 +9134,12 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="23"/>
+      <c r="AB40" s="22"/>
       <c r="AD40" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="11">
+      <c r="AF40" s="10">
         <f>1+$D$9*AF6*(1-AF31)</f>
         <v>1.0761283164573143E-6</v>
       </c>
@@ -9164,7 +9158,7 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
       <c r="AU40" s="4"/>
-      <c r="AV40" s="23"/>
+      <c r="AV40" s="22"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E41" s="2"/>
@@ -9189,10 +9183,10 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="23"/>
+      <c r="AB41" s="22"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
+      <c r="AF41" s="10"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
@@ -9208,21 +9202,21 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
       <c r="AU41" s="4"/>
-      <c r="AV41" s="23"/>
+      <c r="AV41" s="22"/>
     </row>
     <row r="42" spans="2:48" ht="19" x14ac:dyDescent="0.25">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30">
         <f>POWER(L36,2)+POWER(L37,2)+POWER(L38,2)+POWER(AF36,2)+POWER(AF37,2)+POWER(AF38,2)+POWER(L40,2)+POWER(AF40,2)</f>
         <v>2.500071243511114E-11</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -9241,10 +9235,10 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="23"/>
+      <c r="AB42" s="22"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
+      <c r="AF42" s="10"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
@@ -9260,7 +9254,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="4"/>
       <c r="AU42" s="4"/>
-      <c r="AV42" s="23"/>
+      <c r="AV42" s="22"/>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
@@ -9285,7 +9279,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="23"/>
+      <c r="AB43" s="22"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
@@ -9304,61 +9298,61 @@
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
       <c r="AU43" s="4"/>
-      <c r="AV43" s="23"/>
+      <c r="AV43" s="22"/>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25">
         <f>D8*D16</f>
         <v>0.38124975288057794</v>
       </c>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="27"/>
-      <c r="AD44" s="25" t="s">
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="26"/>
+      <c r="AD44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26">
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25">
         <f>D9*D17</f>
         <v>0.381249629603792</v>
       </c>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="27"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="26"/>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
@@ -9367,102 +9361,102 @@
       <c r="H45" s="2"/>
     </row>
     <row r="51" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <f>MIN($D$42)</f>
         <v>2.500071243511114E-11</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <f>COUNT($D$8:$D$9,$D$20:$D$21,$L$4:$L$6,$AF$4:$AF$6)</f>
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="28" t="b">
+      <c r="B54" s="27" t="b">
         <f t="array" ref="B54">$AF$4:$AF$5&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="28" t="b">
+      <c r="B55" s="27" t="b">
         <f t="array" ref="B55">$AF$4:$AF$5&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="b">
+      <c r="B56" s="27" t="b">
         <f>$AF$6&lt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="28" t="b">
+      <c r="B57" s="27" t="b">
         <f>$AF$6&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="b">
+      <c r="B58" s="27" t="b">
         <f t="array" ref="B58">$D$20:$D$21&lt;=2</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="b">
+      <c r="B59" s="27" t="b">
         <f t="array" ref="B59">$D$20:$D$21&gt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="28" t="b">
+      <c r="B60" s="27" t="b">
         <f t="array" ref="B60">$D$8:$D$9&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="28" t="b">
+      <c r="B61" s="27" t="b">
         <f t="array" ref="B61">$D$8:$D$9&gt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="28" t="b">
+      <c r="B62" s="27" t="b">
         <f t="array" ref="B62">$L$4:$L$5&lt;=20</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="28" t="b">
+      <c r="B63" s="27" t="b">
         <f t="array" ref="B63">$L$4:$L$5&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="b">
+      <c r="B64" s="27" t="b">
         <f>$L$6&lt;=0</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="28" t="b">
+      <c r="B65" s="27" t="b">
         <f>$L$6&gt;=-20</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="28">
+      <c r="B66" s="27">
         <f>{32767,32767,0.000001,0.01,FALSE,FALSE,FALSE,1,1,1,0.0000001,FALSE}</f>
         <v>32767</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="29">
+      <c r="B67" s="28">
         <f>{0,0,1,100,0,TRUE,TRUE,0.075,0,0,TRUE,30}</f>
         <v>0</v>
       </c>
@@ -9493,7 +9487,7 @@
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
     </row>

--- a/noncooperative/special case study - Jul 30.xlsx
+++ b/noncooperative/special case study - Jul 30.xlsx
@@ -16,7 +16,7 @@
     <sheet name="(S,NS) case" sheetId="2" r:id="rId2"/>
     <sheet name="(epsilon_1,epsilon_2) case" sheetId="3" r:id="rId3"/>
     <sheet name="(epsilon_1,epsilon_2) case test" sheetId="5" r:id="rId4"/>
-    <sheet name="Note" sheetId="6" r:id="rId5"/>
+    <sheet name="Notes" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'(epsilon_1,epsilon_2) case'!$D$8:$D$9,'(epsilon_1,epsilon_2) case'!$D$20:$D$21,'(epsilon_1,epsilon_2) case'!$L$4:$L$6,'(epsilon_1,epsilon_2) case'!$AF$4:$AF$6</definedName>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="78">
   <si>
     <t>x_A</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>test the result to be Nash eqilibrium; this tabe is the same as the last one; hold one epsilon to be fixed; vary the other</t>
+  </si>
+  <si>
+    <t>1) Cell clolor explain:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>2) To obtain the LL for MNL with noisy observtions, simulation has been used instead of integration.</t>
+  </si>
+  <si>
+    <t>3) Derivative of f(x) at x0 is proximated by  [f(x0 + delta) - f(x0)] / delta at some places.</t>
   </si>
 </sst>
 </file>
@@ -704,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -745,6 +757,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1385,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5430,7 +5443,7 @@
   <dimension ref="B1:AV67"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9470,25 +9483,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="19" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
